--- a/car_expenses.xlsx
+++ b/car_expenses.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12840" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="4" r:id="rId1"/>
-    <sheet name="Complete" sheetId="1" r:id="rId2"/>
+    <sheet name="Total Fuel" sheetId="1" r:id="rId2"/>
     <sheet name="Bangalore" sheetId="2" r:id="rId3"/>
     <sheet name="Pune" sheetId="3" r:id="rId4"/>
     <sheet name="Misc" sheetId="5" r:id="rId5"/>
@@ -1047,7 +1047,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Complete!$B$3:$B$152</c:f>
+              <c:f>'Total Fuel'!$B$3:$B$152</c:f>
               <c:numCache>
                 <c:formatCode>[$-24009]mmmm\ dd\,\ yyyy;@</c:formatCode>
                 <c:ptCount val="150"/>
@@ -1191,7 +1191,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Complete!$G$3:$G$152</c:f>
+              <c:f>'Total Fuel'!$G$3:$G$152</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="150"/>
@@ -1649,11 +1649,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76610944"/>
-        <c:axId val="76625024"/>
+        <c:axId val="70000640"/>
+        <c:axId val="70002176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76610944"/>
+        <c:axId val="70000640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,12 +1661,12 @@
         <c:numFmt formatCode="[$-14009]dd\-mm\-yyyy;@" sourceLinked="0"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76625024"/>
+        <c:crossAx val="70002176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76625024"/>
+        <c:axId val="70002176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1675,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76610944"/>
+        <c:crossAx val="70000640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,7 +1711,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1900,23 +1900,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78710272"/>
-        <c:axId val="78711808"/>
+        <c:axId val="70637440"/>
+        <c:axId val="70638976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78710272"/>
+        <c:axId val="70637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-24009]mmmm\ dd\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78711808"/>
+        <c:crossAx val="70638976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78711808"/>
+        <c:axId val="70638976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1924,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78710272"/>
+        <c:crossAx val="70637440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1937,7 +1937,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2102,23 +2102,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78757248"/>
-        <c:axId val="78763136"/>
+        <c:axId val="70303744"/>
+        <c:axId val="70305280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78757248"/>
+        <c:axId val="70303744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-24009]mmmm\ dd\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78763136"/>
+        <c:crossAx val="70305280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78763136"/>
+        <c:axId val="70305280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2126,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78757248"/>
+        <c:crossAx val="70303744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,7 +2139,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2357,11 +2357,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79980800"/>
-        <c:axId val="79986688"/>
+        <c:axId val="72764032"/>
+        <c:axId val="72769920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79980800"/>
+        <c:axId val="72764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,12 +2379,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79986688"/>
+        <c:crossAx val="72769920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79986688"/>
+        <c:axId val="72769920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2393,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79980800"/>
+        <c:crossAx val="72764032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2406,7 +2406,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2443,7 +2443,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.1239337427904335E-2"/>
           <c:y val="0.11243168752202568"/>
-          <c:w val="0.77749084145846348"/>
+          <c:w val="0.7774908414584637"/>
           <c:h val="0.74848573787995953"/>
         </c:manualLayout>
       </c:layout>
@@ -2611,11 +2611,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80012416"/>
-        <c:axId val="80013952"/>
+        <c:axId val="72803840"/>
+        <c:axId val="72805376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80012416"/>
+        <c:axId val="72803840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,12 +2633,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80013952"/>
+        <c:crossAx val="72805376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80013952"/>
+        <c:axId val="72805376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2647,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80012416"/>
+        <c:crossAx val="72803840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2660,7 +2660,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2820,24 +2820,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77755520"/>
-        <c:axId val="77757056"/>
+        <c:axId val="71656960"/>
+        <c:axId val="71658496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77755520"/>
+        <c:axId val="71656960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77757056"/>
+        <c:crossAx val="71658496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77757056"/>
+        <c:axId val="71658496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2845,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77755520"/>
+        <c:crossAx val="71656960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2858,7 +2858,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3368,12 +3368,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:R152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7078,11 +7078,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
@@ -7171,11 +7171,11 @@
         <v>8</v>
       </c>
       <c r="O2" s="6" t="str">
-        <f>Complete!O2</f>
+        <f>'Total Fuel'!O2</f>
         <v>kpl</v>
       </c>
       <c r="P2" s="7" t="str">
-        <f>Complete!P2</f>
+        <f>'Total Fuel'!P2</f>
         <v>mpg</v>
       </c>
     </row>
@@ -7212,11 +7212,11 @@
         <v>8</v>
       </c>
       <c r="O3" s="8">
-        <f>Complete!O3</f>
+        <f>'Total Fuel'!O3</f>
         <v>1</v>
       </c>
       <c r="P3" s="9">
-        <f>Complete!P3</f>
+        <f>'Total Fuel'!P3</f>
         <v>2.3521458329999998</v>
       </c>
     </row>
@@ -8082,12 +8082,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8190,55 +8190,55 @@
         <v>8</v>
       </c>
       <c r="S2" s="6" t="str">
-        <f>Complete!O2</f>
+        <f>'Total Fuel'!O2</f>
         <v>kpl</v>
       </c>
       <c r="T2" s="7" t="str">
-        <f>Complete!P2</f>
+        <f>'Total Fuel'!P2</f>
         <v>mpg</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="14">
-        <f>Complete!A23</f>
+        <f>'Total Fuel'!A23</f>
         <v>27932</v>
       </c>
       <c r="B3" s="15">
-        <f>Complete!B23</f>
+        <f>'Total Fuel'!B23</f>
         <v>42738</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16">
-        <f>Complete!D23</f>
+        <f>'Total Fuel'!D23</f>
         <v>76.819999999999993</v>
       </c>
       <c r="E3" s="16">
-        <f>Complete!E23</f>
+        <f>'Total Fuel'!E23</f>
         <v>1261.3843999999999</v>
       </c>
       <c r="F3" s="16">
-        <f>Complete!F23</f>
+        <f>'Total Fuel'!F23</f>
         <v>16.420000000000002</v>
       </c>
       <c r="G3" s="33">
-        <f>Complete!G23</f>
+        <f>'Total Fuel'!G23</f>
         <v>19.062119366626064</v>
       </c>
       <c r="H3" s="16">
-        <f>Complete!H23</f>
+        <f>'Total Fuel'!H23</f>
         <v>44.836884636358093</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="14" t="str">
-        <f>Complete!J23</f>
+        <f>'Total Fuel'!J23</f>
         <v>Indian Oil  NH48</v>
       </c>
       <c r="K3" s="14" t="str">
-        <f>Complete!K23</f>
+        <f>'Total Fuel'!K23</f>
         <v>Trip</v>
       </c>
       <c r="L3" s="46">
-        <f>Complete!L23</f>
+        <f>'Total Fuel'!L23</f>
         <v>1</v>
       </c>
       <c r="M3" s="46">
@@ -8250,55 +8250,55 @@
         <v>0</v>
       </c>
       <c r="S3" s="8">
-        <f>Complete!O3</f>
+        <f>'Total Fuel'!O3</f>
         <v>1</v>
       </c>
       <c r="T3" s="9">
-        <f>Complete!P3</f>
+        <f>'Total Fuel'!P3</f>
         <v>2.3521458329999998</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="14">
-        <f>Complete!A24</f>
+        <f>'Total Fuel'!A24</f>
         <v>28295</v>
       </c>
       <c r="B4" s="15">
-        <f>Complete!B24</f>
+        <f>'Total Fuel'!B24</f>
         <v>42739</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16">
-        <f>Complete!D24</f>
+        <f>'Total Fuel'!D24</f>
         <v>59.67</v>
       </c>
       <c r="E4" s="16">
-        <f>Complete!E24</f>
+        <f>'Total Fuel'!E24</f>
         <v>1359.99864</v>
       </c>
       <c r="F4" s="16">
-        <f>Complete!F24</f>
+        <f>'Total Fuel'!F24</f>
         <v>22.792000000000002</v>
       </c>
       <c r="G4" s="33">
-        <f>Complete!G24</f>
+        <f>'Total Fuel'!G24</f>
         <v>15.926640926640925</v>
       </c>
       <c r="H4" s="16">
-        <f>Complete!H24</f>
+        <f>'Total Fuel'!H24</f>
         <v>37.461782089285705</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="14" t="str">
-        <f>Complete!J24</f>
+        <f>'Total Fuel'!J24</f>
         <v>Birla, BP</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f>Complete!K24</f>
+        <f>'Total Fuel'!K24</f>
         <v>Trip</v>
       </c>
       <c r="L4" s="46">
-        <f>Complete!L24</f>
+        <f>'Total Fuel'!L24</f>
         <v>1</v>
       </c>
       <c r="M4" s="46">
@@ -8312,45 +8312,45 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="14">
-        <f>Complete!A25</f>
+        <f>'Total Fuel'!A25</f>
         <v>28541</v>
       </c>
       <c r="B5" s="15">
-        <f>Complete!B25</f>
+        <f>'Total Fuel'!B25</f>
         <v>42740</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16">
-        <f>Complete!D25</f>
+        <f>'Total Fuel'!D25</f>
         <v>75.92</v>
       </c>
       <c r="E5" s="16">
-        <f>Complete!E25</f>
+        <f>'Total Fuel'!E25</f>
         <v>1100.8399999999999</v>
       </c>
       <c r="F5" s="16">
-        <f>Complete!F25</f>
+        <f>'Total Fuel'!F25</f>
         <v>14.5</v>
       </c>
       <c r="G5" s="33">
-        <f>Complete!G25</f>
+        <f>'Total Fuel'!G25</f>
         <v>16.96551724137931</v>
       </c>
       <c r="H5" s="16">
-        <f>Complete!H25</f>
+        <f>'Total Fuel'!H25</f>
         <v>39.905370683999998</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="14" t="str">
-        <f>Complete!J25</f>
+        <f>'Total Fuel'!J25</f>
         <v>Indian Oil, NH48</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f>Complete!K25</f>
+        <f>'Total Fuel'!K25</f>
         <v>Trip</v>
       </c>
       <c r="L5" s="46">
-        <f>Complete!L25</f>
+        <f>'Total Fuel'!L25</f>
         <v>1</v>
       </c>
       <c r="M5" s="46">
@@ -8373,44 +8373,44 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <f>Complete!A26</f>
+        <f>'Total Fuel'!A26</f>
         <v>29041</v>
       </c>
       <c r="B6" s="2">
-        <f>Complete!B26</f>
+        <f>'Total Fuel'!B26</f>
         <v>42757</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4">
-        <f>Complete!D26</f>
+        <f>'Total Fuel'!D26</f>
         <v>76.33</v>
       </c>
       <c r="E6" s="4">
-        <f>Complete!E26</f>
+        <f>'Total Fuel'!E26</f>
         <v>2377.6794999999997</v>
       </c>
       <c r="F6" s="4">
-        <f>Complete!F26</f>
+        <f>'Total Fuel'!F26</f>
         <v>31.15</v>
       </c>
       <c r="G6" s="3">
-        <f>Complete!G26</f>
+        <f>'Total Fuel'!G26</f>
         <v>16.051364365971107</v>
       </c>
       <c r="H6" s="4">
-        <f>Complete!H26</f>
+        <f>'Total Fuel'!H26</f>
         <v>37.755149807383624</v>
       </c>
       <c r="J6" t="str">
-        <f>Complete!J26</f>
+        <f>'Total Fuel'!J26</f>
         <v>HP  Gaikwad Pump</v>
       </c>
       <c r="K6" t="str">
-        <f>Complete!K26</f>
+        <f>'Total Fuel'!K26</f>
         <v>Work</v>
       </c>
       <c r="L6" s="46">
-        <f>Complete!L26</f>
+        <f>'Total Fuel'!L26</f>
         <v>1</v>
       </c>
       <c r="M6" s="46">
@@ -8435,44 +8435,44 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <f>Complete!A27</f>
+        <f>'Total Fuel'!A27</f>
         <v>29319</v>
       </c>
       <c r="B7" s="2">
-        <f>Complete!B27</f>
+        <f>'Total Fuel'!B27</f>
         <v>42770</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4">
-        <f>Complete!D27</f>
+        <f>'Total Fuel'!D27</f>
         <v>79.209999999999994</v>
       </c>
       <c r="E7" s="4">
-        <f>Complete!E27</f>
+        <f>'Total Fuel'!E27</f>
         <v>1487.5637999999999</v>
       </c>
       <c r="F7" s="4">
-        <f>Complete!F27</f>
+        <f>'Total Fuel'!F27</f>
         <v>18.78</v>
       </c>
       <c r="G7" s="3">
-        <f>Complete!G27</f>
+        <f>'Total Fuel'!G27</f>
         <v>14.802981895633652</v>
       </c>
       <c r="H7" s="4">
-        <f>Complete!H27</f>
+        <f>'Total Fuel'!H27</f>
         <v>34.818772181789129</v>
       </c>
       <c r="J7" t="str">
-        <f>Complete!J27</f>
+        <f>'Total Fuel'!J27</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K7" t="str">
-        <f>Complete!K27</f>
+        <f>'Total Fuel'!K27</f>
         <v>Work</v>
       </c>
       <c r="L7" s="46">
-        <f>Complete!L27</f>
+        <f>'Total Fuel'!L27</f>
         <v>1</v>
       </c>
       <c r="M7" s="46">
@@ -8497,44 +8497,44 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8">
-        <f>Complete!A28</f>
+        <f>'Total Fuel'!A28</f>
         <v>29796</v>
       </c>
       <c r="B8" s="2">
-        <f>Complete!B28</f>
+        <f>'Total Fuel'!B28</f>
         <v>42778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4">
-        <f>Complete!D28</f>
+        <f>'Total Fuel'!D28</f>
         <v>76.33</v>
       </c>
       <c r="E8" s="4">
-        <f>Complete!E28</f>
+        <f>'Total Fuel'!E28</f>
         <v>2340.2777999999998</v>
       </c>
       <c r="F8" s="4">
-        <f>Complete!F28</f>
+        <f>'Total Fuel'!F28</f>
         <v>30.66</v>
       </c>
       <c r="G8" s="3">
-        <f>Complete!G28</f>
+        <f>'Total Fuel'!G28</f>
         <v>15.557729941291585</v>
       </c>
       <c r="H8" s="4">
-        <f>Complete!H28</f>
+        <f>'Total Fuel'!H28</f>
         <v>36.594049652348332</v>
       </c>
       <c r="J8" t="str">
-        <f>Complete!J28</f>
+        <f>'Total Fuel'!J28</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K8" t="str">
-        <f>Complete!K28</f>
+        <f>'Total Fuel'!K28</f>
         <v>Work</v>
       </c>
       <c r="L8" s="46">
-        <f>Complete!L28</f>
+        <f>'Total Fuel'!L28</f>
         <v>1</v>
       </c>
       <c r="M8" s="46">
@@ -8548,44 +8548,44 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
-        <f>Complete!A29</f>
+        <f>'Total Fuel'!A29</f>
         <v>29978</v>
       </c>
       <c r="B9" s="2">
-        <f>Complete!B29</f>
+        <f>'Total Fuel'!B29</f>
         <v>42788</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4">
-        <f>Complete!D29</f>
+        <f>'Total Fuel'!D29</f>
         <v>76.34</v>
       </c>
       <c r="E9" s="4">
-        <f>Complete!E29</f>
+        <f>'Total Fuel'!E29</f>
         <v>917.60680000000002</v>
       </c>
       <c r="F9" s="4">
-        <f>Complete!F29</f>
+        <f>'Total Fuel'!F29</f>
         <v>12.02</v>
       </c>
       <c r="G9" s="3">
-        <f>Complete!G29</f>
+        <f>'Total Fuel'!G29</f>
         <v>15.141430948419302</v>
       </c>
       <c r="H9" s="4">
-        <f>Complete!H29</f>
+        <f>'Total Fuel'!H29</f>
         <v>35.614853710981698</v>
       </c>
       <c r="J9" t="str">
-        <f>Complete!J29</f>
+        <f>'Total Fuel'!J29</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K9" t="str">
-        <f>Complete!K29</f>
+        <f>'Total Fuel'!K29</f>
         <v>Work</v>
       </c>
       <c r="L9" s="46">
-        <f>Complete!L29</f>
+        <f>'Total Fuel'!L29</f>
         <v>1</v>
       </c>
       <c r="M9" s="46">
@@ -8599,44 +8599,44 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10">
-        <f>Complete!A30</f>
+        <f>'Total Fuel'!A30</f>
         <v>30106</v>
       </c>
       <c r="B10" s="2">
-        <f>Complete!B30</f>
+        <f>'Total Fuel'!B30</f>
         <v>42797</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4">
-        <f>Complete!D30</f>
+        <f>'Total Fuel'!D30</f>
         <v>76.45</v>
       </c>
       <c r="E10" s="4">
-        <f>Complete!E30</f>
+        <f>'Total Fuel'!E30</f>
         <v>665.11500000000001</v>
       </c>
       <c r="F10" s="4">
-        <f>Complete!F30</f>
+        <f>'Total Fuel'!F30</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="G10" s="3">
-        <f>Complete!G30</f>
+        <f>'Total Fuel'!G30</f>
         <v>14.712643678160921</v>
       </c>
       <c r="H10" s="4">
-        <f>Complete!H30</f>
+        <f>'Total Fuel'!H30</f>
         <v>34.606283519999998</v>
       </c>
       <c r="J10" t="str">
-        <f>Complete!J30</f>
+        <f>'Total Fuel'!J30</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K10" t="str">
-        <f>Complete!K30</f>
+        <f>'Total Fuel'!K30</f>
         <v>Work</v>
       </c>
       <c r="L10" s="46">
-        <f>Complete!L30</f>
+        <f>'Total Fuel'!L30</f>
         <v>1</v>
       </c>
       <c r="M10" s="46">
@@ -8650,44 +8650,44 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11">
-        <f>Complete!A31</f>
+        <f>'Total Fuel'!A31</f>
         <v>30606</v>
       </c>
       <c r="B11" s="2">
-        <f>Complete!B31</f>
+        <f>'Total Fuel'!B31</f>
         <v>42806</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4">
-        <f>Complete!D31</f>
+        <f>'Total Fuel'!D31</f>
         <v>79.06</v>
       </c>
       <c r="E11" s="4">
-        <f>Complete!E31</f>
+        <f>'Total Fuel'!E31</f>
         <v>2564.7064</v>
       </c>
       <c r="F11" s="4">
-        <f>Complete!F31</f>
+        <f>'Total Fuel'!F31</f>
         <v>32.44</v>
       </c>
       <c r="G11" s="3">
-        <f>Complete!G31</f>
+        <f>'Total Fuel'!G31</f>
         <v>15.413070283600494</v>
       </c>
       <c r="H11" s="4">
-        <f>Complete!H31</f>
+        <f>'Total Fuel'!H31</f>
         <v>36.253789041307023</v>
       </c>
       <c r="J11" t="str">
-        <f>Complete!J31</f>
+        <f>'Total Fuel'!J31</f>
         <v>Expressway First Pump HP</v>
       </c>
       <c r="K11" t="str">
-        <f>Complete!K31</f>
+        <f>'Total Fuel'!K31</f>
         <v>Work</v>
       </c>
       <c r="L11" s="46">
-        <f>Complete!L31</f>
+        <f>'Total Fuel'!L31</f>
         <v>1</v>
       </c>
       <c r="M11" s="46">
@@ -8701,44 +8701,44 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
-        <f>Complete!A32</f>
+        <f>'Total Fuel'!A32</f>
         <v>30924</v>
       </c>
       <c r="B12" s="2">
-        <f>Complete!B32</f>
+        <f>'Total Fuel'!B32</f>
         <v>42811</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4">
-        <f>Complete!D32</f>
+        <f>'Total Fuel'!D32</f>
         <v>75.739999999999995</v>
       </c>
       <c r="E12" s="4">
-        <f>Complete!E32</f>
+        <f>'Total Fuel'!E32</f>
         <v>1554.1847999999998</v>
       </c>
       <c r="F12" s="4">
-        <f>Complete!F32</f>
+        <f>'Total Fuel'!F32</f>
         <v>20.52</v>
       </c>
       <c r="G12" s="3">
-        <f>Complete!G32</f>
+        <f>'Total Fuel'!G32</f>
         <v>15.497076023391813</v>
       </c>
       <c r="H12" s="4">
-        <f>Complete!H32</f>
+        <f>'Total Fuel'!H32</f>
         <v>36.451382792105257</v>
       </c>
       <c r="J12" t="str">
-        <f>Complete!J32</f>
+        <f>'Total Fuel'!J32</f>
         <v>Expressway Second Pump HP</v>
       </c>
       <c r="K12" t="str">
-        <f>Complete!K32</f>
+        <f>'Total Fuel'!K32</f>
         <v>Work</v>
       </c>
       <c r="L12" s="46">
-        <f>Complete!L32</f>
+        <f>'Total Fuel'!L32</f>
         <v>1</v>
       </c>
       <c r="M12" s="46">
@@ -8752,44 +8752,44 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
-        <f>Complete!A33</f>
+        <f>'Total Fuel'!A33</f>
         <v>31345</v>
       </c>
       <c r="B13" s="2">
-        <f>Complete!B33</f>
+        <f>'Total Fuel'!B33</f>
         <v>42825</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4">
-        <f>Complete!D33</f>
+        <f>'Total Fuel'!D33</f>
         <v>76.33</v>
       </c>
       <c r="E13" s="4">
-        <f>Complete!E33</f>
+        <f>'Total Fuel'!E33</f>
         <v>2516.6000999999997</v>
       </c>
       <c r="F13" s="4">
-        <f>Complete!F33</f>
+        <f>'Total Fuel'!F33</f>
         <v>32.97</v>
       </c>
       <c r="G13" s="3">
-        <f>Complete!G33</f>
+        <f>'Total Fuel'!G33</f>
         <v>12.769184106763724</v>
       </c>
       <c r="H13" s="4">
-        <f>Complete!H33</f>
+        <f>'Total Fuel'!H33</f>
         <v>30.034983187534117</v>
       </c>
       <c r="J13" t="str">
-        <f>Complete!J33</f>
+        <f>'Total Fuel'!J33</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K13" t="str">
-        <f>Complete!K33</f>
+        <f>'Total Fuel'!K33</f>
         <v>Work</v>
       </c>
       <c r="L13" s="46">
-        <f>Complete!L33</f>
+        <f>'Total Fuel'!L33</f>
         <v>1</v>
       </c>
       <c r="M13" s="46">
@@ -8803,44 +8803,44 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <f>Complete!A34</f>
+        <f>'Total Fuel'!A34</f>
         <v>31795</v>
       </c>
       <c r="B14" s="2">
-        <f>Complete!B34</f>
+        <f>'Total Fuel'!B34</f>
         <v>42846</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4">
-        <f>Complete!D34</f>
+        <f>'Total Fuel'!D34</f>
         <v>73.72</v>
       </c>
       <c r="E14" s="4">
-        <f>Complete!E34</f>
+        <f>'Total Fuel'!E34</f>
         <v>2306.03532</v>
       </c>
       <c r="F14" s="4">
-        <f>Complete!F34</f>
+        <f>'Total Fuel'!F34</f>
         <v>31.280999999999999</v>
       </c>
       <c r="G14" s="3">
-        <f>Complete!G34</f>
+        <f>'Total Fuel'!G34</f>
         <v>14.385729356478373</v>
       </c>
       <c r="H14" s="4">
-        <f>Complete!H34</f>
+        <f>'Total Fuel'!H34</f>
         <v>33.837333360506378</v>
       </c>
       <c r="J14" t="str">
-        <f>Complete!J34</f>
+        <f>'Total Fuel'!J34</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K14" t="str">
-        <f>Complete!K34</f>
+        <f>'Total Fuel'!K34</f>
         <v>Work</v>
       </c>
       <c r="L14" s="46">
-        <f>Complete!L34</f>
+        <f>'Total Fuel'!L34</f>
         <v>1</v>
       </c>
       <c r="M14" s="46">
@@ -8854,44 +8854,44 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
-        <f>Complete!A35</f>
+        <f>'Total Fuel'!A35</f>
         <v>32187</v>
       </c>
       <c r="B15" s="2">
-        <f>Complete!B35</f>
+        <f>'Total Fuel'!B35</f>
         <v>42863</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4">
-        <f>Complete!D35</f>
+        <f>'Total Fuel'!D35</f>
         <v>79.239999999999995</v>
       </c>
       <c r="E15" s="4">
-        <f>Complete!E35</f>
+        <f>'Total Fuel'!E35</f>
         <v>2226.6439999999998</v>
       </c>
       <c r="F15" s="4">
-        <f>Complete!F35</f>
+        <f>'Total Fuel'!F35</f>
         <v>28.1</v>
       </c>
       <c r="G15" s="3">
-        <f>Complete!G35</f>
+        <f>'Total Fuel'!G35</f>
         <v>13.95017793594306</v>
       </c>
       <c r="H15" s="4">
-        <f>Complete!H35</f>
+        <f>'Total Fuel'!H35</f>
         <v>32.812852901637008</v>
       </c>
       <c r="J15" t="str">
-        <f>Complete!J35</f>
+        <f>'Total Fuel'!J35</f>
         <v>Expressway Second Pump HP</v>
       </c>
       <c r="K15" t="str">
-        <f>Complete!K35</f>
+        <f>'Total Fuel'!K35</f>
         <v>Work</v>
       </c>
       <c r="L15" s="46">
-        <f>Complete!L35</f>
+        <f>'Total Fuel'!L35</f>
         <v>1</v>
       </c>
       <c r="M15" s="46">
@@ -8905,44 +8905,44 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
-        <f>Complete!A36</f>
+        <f>'Total Fuel'!A36</f>
         <v>32382</v>
       </c>
       <c r="B16" s="2">
-        <f>Complete!B36</f>
+        <f>'Total Fuel'!B36</f>
         <v>42871</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4">
-        <f>Complete!D36</f>
+        <f>'Total Fuel'!D36</f>
         <v>73.56</v>
       </c>
       <c r="E16" s="4">
-        <f>Complete!E36</f>
+        <f>'Total Fuel'!E36</f>
         <v>1007.7719999999999</v>
       </c>
       <c r="F16" s="4">
-        <f>Complete!F36</f>
+        <f>'Total Fuel'!F36</f>
         <v>13.7</v>
       </c>
       <c r="G16" s="3">
-        <f>Complete!G36</f>
+        <f>'Total Fuel'!G36</f>
         <v>14.233576642335768</v>
       </c>
       <c r="H16" s="4">
-        <f>Complete!H36</f>
+        <f>'Total Fuel'!H36</f>
         <v>33.479447987956206</v>
       </c>
       <c r="J16" t="str">
-        <f>Complete!J36</f>
+        <f>'Total Fuel'!J36</f>
         <v>BP  Baner</v>
       </c>
       <c r="K16" t="str">
-        <f>Complete!K36</f>
+        <f>'Total Fuel'!K36</f>
         <v>Work</v>
       </c>
       <c r="L16" s="46">
-        <f>Complete!L36</f>
+        <f>'Total Fuel'!L36</f>
         <v>1</v>
       </c>
       <c r="M16" s="46">
@@ -8956,45 +8956,45 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="14">
-        <f>Complete!A37</f>
+        <f>'Total Fuel'!A37</f>
         <v>32963</v>
       </c>
       <c r="B17" s="15">
-        <f>Complete!B37</f>
+        <f>'Total Fuel'!B37</f>
         <v>42874</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16">
-        <f>Complete!D37</f>
+        <f>'Total Fuel'!D37</f>
         <v>70.03</v>
       </c>
       <c r="E17" s="16">
-        <f>Complete!E37</f>
+        <f>'Total Fuel'!E37</f>
         <v>2280.8771000000002</v>
       </c>
       <c r="F17" s="16">
-        <f>Complete!F37</f>
+        <f>'Total Fuel'!F37</f>
         <v>32.57</v>
       </c>
       <c r="G17" s="33">
-        <f>Complete!G37</f>
+        <f>'Total Fuel'!G37</f>
         <v>17.838501688670554</v>
       </c>
       <c r="H17" s="16">
-        <f>Complete!H37</f>
+        <f>'Total Fuel'!H37</f>
         <v>41.958757413969906</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="14" t="str">
-        <f>Complete!J37</f>
+        <f>'Total Fuel'!J37</f>
         <v>Indian Oil  Khanapur Rd  Belgaum</v>
       </c>
       <c r="K17" s="14" t="str">
-        <f>Complete!K37</f>
+        <f>'Total Fuel'!K37</f>
         <v>Trip</v>
       </c>
       <c r="L17" s="46">
-        <f>Complete!L37</f>
+        <f>'Total Fuel'!L37</f>
         <v>1</v>
       </c>
       <c r="M17" s="46">
@@ -9008,44 +9008,44 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <f>Complete!A38</f>
+        <f>'Total Fuel'!A38</f>
         <v>33436</v>
       </c>
       <c r="B18" s="2">
-        <f>Complete!B38</f>
+        <f>'Total Fuel'!B38</f>
         <v>42887</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4">
-        <f>Complete!D38</f>
+        <f>'Total Fuel'!D38</f>
         <v>79.83</v>
       </c>
       <c r="E18" s="4">
-        <f>Complete!E38</f>
+        <f>'Total Fuel'!E38</f>
         <v>2418.0506999999998</v>
       </c>
       <c r="F18" s="4">
-        <f>Complete!F38</f>
+        <f>'Total Fuel'!F38</f>
         <v>30.29</v>
       </c>
       <c r="G18" s="3">
-        <f>Complete!G38</f>
+        <f>'Total Fuel'!G38</f>
         <v>15.615714757345659</v>
       </c>
       <c r="H18" s="4">
-        <f>Complete!H38</f>
+        <f>'Total Fuel'!H38</f>
         <v>36.730438395807191</v>
       </c>
       <c r="J18" t="str">
-        <f>Complete!J38</f>
+        <f>'Total Fuel'!J38</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K18" t="str">
-        <f>Complete!K38</f>
+        <f>'Total Fuel'!K38</f>
         <v>Work</v>
       </c>
       <c r="L18" s="46">
-        <f>Complete!L38</f>
+        <f>'Total Fuel'!L38</f>
         <v>1</v>
       </c>
       <c r="M18" s="46">
@@ -9059,44 +9059,44 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <f>Complete!A39</f>
+        <f>'Total Fuel'!A39</f>
         <v>33861</v>
       </c>
       <c r="B19" s="2">
-        <f>Complete!B39</f>
+        <f>'Total Fuel'!B39</f>
         <v>42933</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4">
-        <f>Complete!D39</f>
+        <f>'Total Fuel'!D39</f>
         <v>73.44</v>
       </c>
       <c r="E19" s="4">
-        <f>Complete!E39</f>
+        <f>'Total Fuel'!E39</f>
         <v>2579.2127999999998</v>
       </c>
       <c r="F19" s="4">
-        <f>Complete!F39</f>
+        <f>'Total Fuel'!F39</f>
         <v>35.119999999999997</v>
       </c>
       <c r="G19" s="3">
-        <f>Complete!G39</f>
+        <f>'Total Fuel'!G39</f>
         <v>12.101366742596811</v>
       </c>
       <c r="H19" s="4">
-        <f>Complete!H39</f>
+        <f>'Total Fuel'!H39</f>
         <v>28.464179357203871</v>
       </c>
       <c r="J19" t="str">
-        <f>Complete!J39</f>
+        <f>'Total Fuel'!J39</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K19" t="str">
-        <f>Complete!K39</f>
+        <f>'Total Fuel'!K39</f>
         <v>Work</v>
       </c>
       <c r="L19" s="46">
-        <f>Complete!L39</f>
+        <f>'Total Fuel'!L39</f>
         <v>1</v>
       </c>
       <c r="M19" s="46">
@@ -9110,44 +9110,44 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <f>Complete!A40</f>
+        <f>'Total Fuel'!A40</f>
         <v>34286</v>
       </c>
       <c r="B20" s="2">
-        <f>Complete!B40</f>
+        <f>'Total Fuel'!B40</f>
         <v>42969</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4">
-        <f>Complete!D40</f>
+        <f>'Total Fuel'!D40</f>
         <v>77.760000000000005</v>
       </c>
       <c r="E20" s="4">
-        <f>Complete!E40</f>
+        <f>'Total Fuel'!E40</f>
         <v>2624.4</v>
       </c>
       <c r="F20" s="4">
-        <f>Complete!F40</f>
+        <f>'Total Fuel'!F40</f>
         <v>33.75</v>
       </c>
       <c r="G20" s="3">
-        <f>Complete!G40</f>
+        <f>'Total Fuel'!G40</f>
         <v>12.592592592592593</v>
       </c>
       <c r="H20" s="4">
-        <f>Complete!H40</f>
+        <f>'Total Fuel'!H40</f>
         <v>29.619614193333334</v>
       </c>
       <c r="J20" t="str">
-        <f>Complete!J40</f>
+        <f>'Total Fuel'!J40</f>
         <v>BP, Baner</v>
       </c>
       <c r="K20" t="str">
-        <f>Complete!K40</f>
+        <f>'Total Fuel'!K40</f>
         <v>Work</v>
       </c>
       <c r="L20" s="46">
-        <f>Complete!L40</f>
+        <f>'Total Fuel'!L40</f>
         <v>1</v>
       </c>
       <c r="M20" s="46">
@@ -9161,44 +9161,44 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <f>Complete!A41</f>
+        <f>'Total Fuel'!A41</f>
         <v>34739</v>
       </c>
       <c r="B21" s="2">
-        <f>Complete!B41</f>
+        <f>'Total Fuel'!B41</f>
         <v>42985</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4">
-        <f>Complete!D41</f>
+        <f>'Total Fuel'!D41</f>
         <v>81.47</v>
       </c>
       <c r="E21" s="4">
-        <f>Complete!E41</f>
+        <f>'Total Fuel'!E41</f>
         <v>2847.3765000000003</v>
       </c>
       <c r="F21" s="4">
-        <f>Complete!F41</f>
+        <f>'Total Fuel'!F41</f>
         <v>34.950000000000003</v>
       </c>
       <c r="G21" s="3">
-        <f>Complete!G41</f>
+        <f>'Total Fuel'!G41</f>
         <v>12.961373390557938</v>
       </c>
       <c r="H21" s="4">
-        <f>Complete!H41</f>
+        <f>'Total Fuel'!H41</f>
         <v>30.487040410557931</v>
       </c>
       <c r="J21" t="str">
-        <f>Complete!J41</f>
+        <f>'Total Fuel'!J41</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K21" t="str">
-        <f>Complete!K41</f>
+        <f>'Total Fuel'!K41</f>
         <v>Work</v>
       </c>
       <c r="L21" s="46">
-        <f>Complete!L41</f>
+        <f>'Total Fuel'!L41</f>
         <v>1</v>
       </c>
       <c r="M21" s="46">
@@ -9212,44 +9212,44 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <f>Complete!A42</f>
+        <f>'Total Fuel'!A42</f>
         <v>35138</v>
       </c>
       <c r="B22" s="2">
-        <f>Complete!B42</f>
+        <f>'Total Fuel'!B42</f>
         <v>42988</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4">
-        <f>Complete!D42</f>
+        <f>'Total Fuel'!D42</f>
         <v>82.22</v>
       </c>
       <c r="E22" s="4">
-        <f>Complete!E42</f>
+        <f>'Total Fuel'!E42</f>
         <v>2466.6</v>
       </c>
       <c r="F22" s="4">
-        <f>Complete!F42</f>
+        <f>'Total Fuel'!F42</f>
         <v>30</v>
       </c>
       <c r="G22" s="3">
-        <f>Complete!G42</f>
+        <f>'Total Fuel'!G42</f>
         <v>13.3</v>
       </c>
       <c r="H22" s="4">
-        <f>Complete!H42</f>
+        <f>'Total Fuel'!H42</f>
         <v>31.283539578899997</v>
       </c>
       <c r="J22" t="str">
-        <f>Complete!J42</f>
+        <f>'Total Fuel'!J42</f>
         <v>YCE  2nd Toll Pune  BP</v>
       </c>
       <c r="K22" t="str">
-        <f>Complete!K42</f>
+        <f>'Total Fuel'!K42</f>
         <v>Work</v>
       </c>
       <c r="L22" s="46">
-        <f>Complete!L42</f>
+        <f>'Total Fuel'!L42</f>
         <v>1</v>
       </c>
       <c r="M22" s="46">
@@ -9263,44 +9263,44 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <f>Complete!A43</f>
+        <f>'Total Fuel'!A43</f>
         <v>35580</v>
       </c>
       <c r="B23" s="2">
-        <f>Complete!B43</f>
+        <f>'Total Fuel'!B43</f>
         <v>43005</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4">
-        <f>Complete!D43</f>
+        <f>'Total Fuel'!D43</f>
         <v>79.34</v>
       </c>
       <c r="E23" s="4">
-        <f>Complete!E43</f>
+        <f>'Total Fuel'!E43</f>
         <v>2620.6002000000003</v>
       </c>
       <c r="F23" s="4">
-        <f>Complete!F43</f>
+        <f>'Total Fuel'!F43</f>
         <v>33.03</v>
       </c>
       <c r="G23" s="3">
-        <f>Complete!G43</f>
+        <f>'Total Fuel'!G43</f>
         <v>13.381774144716923</v>
       </c>
       <c r="H23" s="4">
-        <f>Complete!H43</f>
+        <f>'Total Fuel'!H43</f>
         <v>31.475884292643048</v>
       </c>
       <c r="J23" t="str">
-        <f>Complete!J43</f>
+        <f>'Total Fuel'!J43</f>
         <v>BP, Baner</v>
       </c>
       <c r="K23" t="str">
-        <f>Complete!K43</f>
+        <f>'Total Fuel'!K43</f>
         <v>Work</v>
       </c>
       <c r="L23" s="46">
-        <f>Complete!L43</f>
+        <f>'Total Fuel'!L43</f>
         <v>1</v>
       </c>
       <c r="M23" s="46">
@@ -9314,44 +9314,44 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <f>Complete!A44</f>
+        <f>'Total Fuel'!A44</f>
         <v>36006</v>
       </c>
       <c r="B24" s="2">
-        <f>Complete!B44</f>
+        <f>'Total Fuel'!B44</f>
         <v>43026</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4">
-        <f>Complete!D44</f>
+        <f>'Total Fuel'!D44</f>
         <v>77.959999999999994</v>
       </c>
       <c r="E24" s="4">
-        <f>Complete!E44</f>
+        <f>'Total Fuel'!E44</f>
         <v>2673.2483999999995</v>
       </c>
       <c r="F24" s="4">
-        <f>Complete!F44</f>
+        <f>'Total Fuel'!F44</f>
         <v>34.29</v>
       </c>
       <c r="G24" s="3">
-        <f>Complete!G44</f>
+        <f>'Total Fuel'!G44</f>
         <v>12.42344706911636</v>
       </c>
       <c r="H24" s="4">
-        <f>Complete!H44</f>
+        <f>'Total Fuel'!H44</f>
         <v>29.221759255118108</v>
       </c>
       <c r="J24" t="str">
-        <f>Complete!J44</f>
+        <f>'Total Fuel'!J44</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K24" t="str">
-        <f>Complete!K44</f>
+        <f>'Total Fuel'!K44</f>
         <v>Work</v>
       </c>
       <c r="L24" s="46">
-        <f>Complete!L44</f>
+        <f>'Total Fuel'!L44</f>
         <v>1</v>
       </c>
       <c r="M24" s="46">
@@ -9365,44 +9365,44 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <f>Complete!A45</f>
+        <f>'Total Fuel'!A45</f>
         <v>36467</v>
       </c>
       <c r="B25" s="2">
-        <f>Complete!B45</f>
+        <f>'Total Fuel'!B45</f>
         <v>43045</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4">
-        <f>Complete!D45</f>
+        <f>'Total Fuel'!D45</f>
         <v>76.760000000000005</v>
       </c>
       <c r="E25" s="4">
-        <f>Complete!E45</f>
+        <f>'Total Fuel'!E45</f>
         <v>2629.03</v>
       </c>
       <c r="F25" s="4">
-        <f>Complete!F45</f>
+        <f>'Total Fuel'!F45</f>
         <v>34.25</v>
       </c>
       <c r="G25" s="3">
-        <f>Complete!G45</f>
+        <f>'Total Fuel'!G45</f>
         <v>13.459854014598541</v>
       </c>
       <c r="H25" s="4">
-        <f>Complete!H45</f>
+        <f>'Total Fuel'!H45</f>
         <v>31.659539533226276</v>
       </c>
       <c r="J25" t="str">
-        <f>Complete!J45</f>
+        <f>'Total Fuel'!J45</f>
         <v>HP, Gaikwad Pump</v>
       </c>
       <c r="K25" t="str">
-        <f>Complete!K45</f>
+        <f>'Total Fuel'!K45</f>
         <v>Work</v>
       </c>
       <c r="L25" s="46">
-        <f>Complete!L45</f>
+        <f>'Total Fuel'!L45</f>
         <v>1</v>
       </c>
       <c r="M25" s="46">
@@ -9416,44 +9416,44 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <f>Complete!A46</f>
+        <f>'Total Fuel'!A46</f>
         <v>36917</v>
       </c>
       <c r="B26" s="2">
-        <f>Complete!B46</f>
+        <f>'Total Fuel'!B46</f>
         <v>43068</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4">
-        <f>Complete!D46</f>
+        <f>'Total Fuel'!D46</f>
         <v>76.45</v>
       </c>
       <c r="E26" s="4">
-        <f>Complete!E46</f>
+        <f>'Total Fuel'!E46</f>
         <v>2398.2365</v>
       </c>
       <c r="F26" s="4">
-        <f>Complete!F46</f>
+        <f>'Total Fuel'!F46</f>
         <v>31.37</v>
       </c>
       <c r="G26" s="3">
-        <f>Complete!G46</f>
+        <f>'Total Fuel'!G46</f>
         <v>14.344915524386355</v>
       </c>
       <c r="H26" s="4">
-        <f>Complete!H46</f>
+        <f>'Total Fuel'!H46</f>
         <v>33.74133327542237</v>
       </c>
       <c r="J26" t="str">
-        <f>Complete!J46</f>
+        <f>'Total Fuel'!J46</f>
         <v>BP, Baner</v>
       </c>
       <c r="K26" t="str">
-        <f>Complete!K46</f>
+        <f>'Total Fuel'!K46</f>
         <v>Work</v>
       </c>
       <c r="L26" s="46">
-        <f>Complete!L46</f>
+        <f>'Total Fuel'!L46</f>
         <v>1</v>
       </c>
       <c r="M26" s="46">
@@ -9467,43 +9467,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <f>Complete!A47</f>
+        <f>'Total Fuel'!A47</f>
         <v>37288</v>
       </c>
       <c r="B27" s="5">
-        <f>Complete!B47</f>
+        <f>'Total Fuel'!B47</f>
         <v>43080</v>
       </c>
       <c r="D27" s="4">
-        <f>Complete!D47</f>
+        <f>'Total Fuel'!D47</f>
         <v>76.52</v>
       </c>
       <c r="E27" s="4">
-        <f>Complete!E47</f>
+        <f>'Total Fuel'!E47</f>
         <v>2317.7907999999998</v>
       </c>
       <c r="F27" s="4">
-        <f>Complete!F47</f>
+        <f>'Total Fuel'!F47</f>
         <v>30.29</v>
       </c>
       <c r="G27" s="3">
-        <f>Complete!G47</f>
+        <f>'Total Fuel'!G47</f>
         <v>12.248266754704524</v>
       </c>
       <c r="H27" s="4">
-        <f>Complete!H47</f>
+        <f>'Total Fuel'!H47</f>
         <v>28.809709608550676</v>
       </c>
       <c r="J27" t="str">
-        <f>Complete!J47</f>
+        <f>'Total Fuel'!J47</f>
         <v>BP, Baner</v>
       </c>
       <c r="K27" t="str">
-        <f>Complete!K47</f>
+        <f>'Total Fuel'!K47</f>
         <v>Work</v>
       </c>
       <c r="L27" s="46">
-        <f>Complete!L47</f>
+        <f>'Total Fuel'!L47</f>
         <v>1</v>
       </c>
       <c r="M27" s="46">
@@ -9517,43 +9517,43 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <f>Complete!A48</f>
+        <f>'Total Fuel'!A48</f>
         <v>0</v>
       </c>
       <c r="B28" s="5">
-        <f>Complete!B48</f>
+        <f>'Total Fuel'!B48</f>
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f>Complete!D48</f>
+        <f>'Total Fuel'!D48</f>
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <f>Complete!E48</f>
+        <f>'Total Fuel'!E48</f>
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <f>Complete!F48</f>
+        <f>'Total Fuel'!F48</f>
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f>Complete!G48</f>
+        <f>'Total Fuel'!G48</f>
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>Complete!H48</f>
+        <f>'Total Fuel'!H48</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>Complete!J48</f>
+        <f>'Total Fuel'!J48</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>Complete!K48</f>
+        <f>'Total Fuel'!K48</f>
         <v>0</v>
       </c>
       <c r="L28" s="46">
-        <f>Complete!L48</f>
+        <f>'Total Fuel'!L48</f>
         <v>0</v>
       </c>
       <c r="M28" s="46">
@@ -9567,43 +9567,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <f>Complete!A49</f>
+        <f>'Total Fuel'!A49</f>
         <v>0</v>
       </c>
       <c r="B29" s="5">
-        <f>Complete!B49</f>
+        <f>'Total Fuel'!B49</f>
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <f>Complete!D49</f>
+        <f>'Total Fuel'!D49</f>
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <f>Complete!E49</f>
+        <f>'Total Fuel'!E49</f>
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <f>Complete!F49</f>
+        <f>'Total Fuel'!F49</f>
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f>Complete!G49</f>
+        <f>'Total Fuel'!G49</f>
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>Complete!H49</f>
+        <f>'Total Fuel'!H49</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>Complete!J49</f>
+        <f>'Total Fuel'!J49</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>Complete!K49</f>
+        <f>'Total Fuel'!K49</f>
         <v>0</v>
       </c>
       <c r="L29" s="46">
-        <f>Complete!L49</f>
+        <f>'Total Fuel'!L49</f>
         <v>0</v>
       </c>
       <c r="M29" s="46">
@@ -9617,43 +9617,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <f>Complete!A50</f>
+        <f>'Total Fuel'!A50</f>
         <v>0</v>
       </c>
       <c r="B30" s="5">
-        <f>Complete!B50</f>
+        <f>'Total Fuel'!B50</f>
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <f>Complete!D50</f>
+        <f>'Total Fuel'!D50</f>
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <f>Complete!E50</f>
+        <f>'Total Fuel'!E50</f>
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f>Complete!F50</f>
+        <f>'Total Fuel'!F50</f>
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f>Complete!G50</f>
+        <f>'Total Fuel'!G50</f>
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>Complete!H50</f>
+        <f>'Total Fuel'!H50</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>Complete!J50</f>
+        <f>'Total Fuel'!J50</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>Complete!K50</f>
+        <f>'Total Fuel'!K50</f>
         <v>0</v>
       </c>
       <c r="L30" s="46">
-        <f>Complete!L50</f>
+        <f>'Total Fuel'!L50</f>
         <v>0</v>
       </c>
       <c r="M30" s="46">
@@ -9667,43 +9667,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <f>Complete!A51</f>
+        <f>'Total Fuel'!A51</f>
         <v>0</v>
       </c>
       <c r="B31" s="5">
-        <f>Complete!B51</f>
+        <f>'Total Fuel'!B51</f>
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <f>Complete!D51</f>
+        <f>'Total Fuel'!D51</f>
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <f>Complete!E51</f>
+        <f>'Total Fuel'!E51</f>
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f>Complete!F51</f>
+        <f>'Total Fuel'!F51</f>
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <f>Complete!G51</f>
+        <f>'Total Fuel'!G51</f>
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>Complete!H51</f>
+        <f>'Total Fuel'!H51</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>Complete!J51</f>
+        <f>'Total Fuel'!J51</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>Complete!K51</f>
+        <f>'Total Fuel'!K51</f>
         <v>0</v>
       </c>
       <c r="L31" s="46">
-        <f>Complete!L51</f>
+        <f>'Total Fuel'!L51</f>
         <v>0</v>
       </c>
       <c r="M31" s="46">
@@ -9717,43 +9717,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <f>Complete!A52</f>
+        <f>'Total Fuel'!A52</f>
         <v>0</v>
       </c>
       <c r="B32" s="5">
-        <f>Complete!B52</f>
+        <f>'Total Fuel'!B52</f>
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <f>Complete!D52</f>
+        <f>'Total Fuel'!D52</f>
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <f>Complete!E52</f>
+        <f>'Total Fuel'!E52</f>
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <f>Complete!F52</f>
+        <f>'Total Fuel'!F52</f>
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <f>Complete!G52</f>
+        <f>'Total Fuel'!G52</f>
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>Complete!H52</f>
+        <f>'Total Fuel'!H52</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>Complete!J52</f>
+        <f>'Total Fuel'!J52</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>Complete!K52</f>
+        <f>'Total Fuel'!K52</f>
         <v>0</v>
       </c>
       <c r="L32" s="46">
-        <f>Complete!L52</f>
+        <f>'Total Fuel'!L52</f>
         <v>0</v>
       </c>
       <c r="M32" s="46">
@@ -9767,43 +9767,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <f>Complete!A53</f>
+        <f>'Total Fuel'!A53</f>
         <v>0</v>
       </c>
       <c r="B33" s="5">
-        <f>Complete!B53</f>
+        <f>'Total Fuel'!B53</f>
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <f>Complete!D53</f>
+        <f>'Total Fuel'!D53</f>
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <f>Complete!E53</f>
+        <f>'Total Fuel'!E53</f>
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <f>Complete!F53</f>
+        <f>'Total Fuel'!F53</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <f>Complete!G53</f>
+        <f>'Total Fuel'!G53</f>
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>Complete!H53</f>
+        <f>'Total Fuel'!H53</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>Complete!J53</f>
+        <f>'Total Fuel'!J53</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>Complete!K53</f>
+        <f>'Total Fuel'!K53</f>
         <v>0</v>
       </c>
       <c r="L33" s="46">
-        <f>Complete!L53</f>
+        <f>'Total Fuel'!L53</f>
         <v>0</v>
       </c>
       <c r="M33" s="46">
@@ -9817,43 +9817,43 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <f>Complete!A54</f>
+        <f>'Total Fuel'!A54</f>
         <v>0</v>
       </c>
       <c r="B34" s="5">
-        <f>Complete!B54</f>
+        <f>'Total Fuel'!B54</f>
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <f>Complete!D54</f>
+        <f>'Total Fuel'!D54</f>
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <f>Complete!E54</f>
+        <f>'Total Fuel'!E54</f>
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <f>Complete!F54</f>
+        <f>'Total Fuel'!F54</f>
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <f>Complete!G54</f>
+        <f>'Total Fuel'!G54</f>
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>Complete!H54</f>
+        <f>'Total Fuel'!H54</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>Complete!J54</f>
+        <f>'Total Fuel'!J54</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>Complete!K54</f>
+        <f>'Total Fuel'!K54</f>
         <v>0</v>
       </c>
       <c r="L34" s="46">
-        <f>Complete!L54</f>
+        <f>'Total Fuel'!L54</f>
         <v>0</v>
       </c>
       <c r="M34" s="46">
@@ -9867,43 +9867,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <f>Complete!A55</f>
+        <f>'Total Fuel'!A55</f>
         <v>0</v>
       </c>
       <c r="B35" s="5">
-        <f>Complete!B55</f>
+        <f>'Total Fuel'!B55</f>
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <f>Complete!D55</f>
+        <f>'Total Fuel'!D55</f>
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <f>Complete!E55</f>
+        <f>'Total Fuel'!E55</f>
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f>Complete!F55</f>
+        <f>'Total Fuel'!F55</f>
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <f>Complete!G55</f>
+        <f>'Total Fuel'!G55</f>
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f>Complete!H55</f>
+        <f>'Total Fuel'!H55</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>Complete!J55</f>
+        <f>'Total Fuel'!J55</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>Complete!K55</f>
+        <f>'Total Fuel'!K55</f>
         <v>0</v>
       </c>
       <c r="L35" s="46">
-        <f>Complete!L55</f>
+        <f>'Total Fuel'!L55</f>
         <v>0</v>
       </c>
       <c r="M35" s="46">
@@ -9917,43 +9917,43 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <f>Complete!A56</f>
+        <f>'Total Fuel'!A56</f>
         <v>0</v>
       </c>
       <c r="B36" s="5">
-        <f>Complete!B56</f>
+        <f>'Total Fuel'!B56</f>
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <f>Complete!D56</f>
+        <f>'Total Fuel'!D56</f>
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <f>Complete!E56</f>
+        <f>'Total Fuel'!E56</f>
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <f>Complete!F56</f>
+        <f>'Total Fuel'!F56</f>
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <f>Complete!G56</f>
+        <f>'Total Fuel'!G56</f>
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <f>Complete!H56</f>
+        <f>'Total Fuel'!H56</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>Complete!J56</f>
+        <f>'Total Fuel'!J56</f>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>Complete!K56</f>
+        <f>'Total Fuel'!K56</f>
         <v>0</v>
       </c>
       <c r="L36" s="46">
-        <f>Complete!L56</f>
+        <f>'Total Fuel'!L56</f>
         <v>0</v>
       </c>
       <c r="M36" s="46">
@@ -9967,43 +9967,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <f>Complete!A57</f>
+        <f>'Total Fuel'!A57</f>
         <v>0</v>
       </c>
       <c r="B37" s="5">
-        <f>Complete!B57</f>
+        <f>'Total Fuel'!B57</f>
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <f>Complete!D57</f>
+        <f>'Total Fuel'!D57</f>
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <f>Complete!E57</f>
+        <f>'Total Fuel'!E57</f>
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <f>Complete!F57</f>
+        <f>'Total Fuel'!F57</f>
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <f>Complete!G57</f>
+        <f>'Total Fuel'!G57</f>
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <f>Complete!H57</f>
+        <f>'Total Fuel'!H57</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>Complete!J57</f>
+        <f>'Total Fuel'!J57</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>Complete!K57</f>
+        <f>'Total Fuel'!K57</f>
         <v>0</v>
       </c>
       <c r="L37" s="46">
-        <f>Complete!L57</f>
+        <f>'Total Fuel'!L57</f>
         <v>0</v>
       </c>
       <c r="M37" s="46">
@@ -10017,43 +10017,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <f>Complete!A58</f>
+        <f>'Total Fuel'!A58</f>
         <v>0</v>
       </c>
       <c r="B38" s="5">
-        <f>Complete!B58</f>
+        <f>'Total Fuel'!B58</f>
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <f>Complete!D58</f>
+        <f>'Total Fuel'!D58</f>
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <f>Complete!E58</f>
+        <f>'Total Fuel'!E58</f>
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <f>Complete!F58</f>
+        <f>'Total Fuel'!F58</f>
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <f>Complete!G58</f>
+        <f>'Total Fuel'!G58</f>
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <f>Complete!H58</f>
+        <f>'Total Fuel'!H58</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>Complete!J58</f>
+        <f>'Total Fuel'!J58</f>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>Complete!K58</f>
+        <f>'Total Fuel'!K58</f>
         <v>0</v>
       </c>
       <c r="L38" s="46">
-        <f>Complete!L58</f>
+        <f>'Total Fuel'!L58</f>
         <v>0</v>
       </c>
       <c r="M38" s="46">
@@ -10067,43 +10067,43 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <f>Complete!A59</f>
+        <f>'Total Fuel'!A59</f>
         <v>0</v>
       </c>
       <c r="B39" s="5">
-        <f>Complete!B59</f>
+        <f>'Total Fuel'!B59</f>
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f>Complete!D59</f>
+        <f>'Total Fuel'!D59</f>
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f>Complete!E59</f>
+        <f>'Total Fuel'!E59</f>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f>Complete!F59</f>
+        <f>'Total Fuel'!F59</f>
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <f>Complete!G59</f>
+        <f>'Total Fuel'!G59</f>
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <f>Complete!H59</f>
+        <f>'Total Fuel'!H59</f>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>Complete!J59</f>
+        <f>'Total Fuel'!J59</f>
         <v>0</v>
       </c>
       <c r="K39">
-        <f>Complete!K59</f>
+        <f>'Total Fuel'!K59</f>
         <v>0</v>
       </c>
       <c r="L39" s="46">
-        <f>Complete!L59</f>
+        <f>'Total Fuel'!L59</f>
         <v>0</v>
       </c>
       <c r="M39" s="46">
@@ -10117,43 +10117,43 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <f>Complete!A60</f>
+        <f>'Total Fuel'!A60</f>
         <v>0</v>
       </c>
       <c r="B40" s="5">
-        <f>Complete!B60</f>
+        <f>'Total Fuel'!B60</f>
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f>Complete!D60</f>
+        <f>'Total Fuel'!D60</f>
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <f>Complete!E60</f>
+        <f>'Total Fuel'!E60</f>
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <f>Complete!F60</f>
+        <f>'Total Fuel'!F60</f>
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <f>Complete!G60</f>
+        <f>'Total Fuel'!G60</f>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f>Complete!H60</f>
+        <f>'Total Fuel'!H60</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>Complete!J60</f>
+        <f>'Total Fuel'!J60</f>
         <v>0</v>
       </c>
       <c r="K40">
-        <f>Complete!K60</f>
+        <f>'Total Fuel'!K60</f>
         <v>0</v>
       </c>
       <c r="L40" s="46">
-        <f>Complete!L60</f>
+        <f>'Total Fuel'!L60</f>
         <v>0</v>
       </c>
       <c r="M40" s="46">
@@ -10167,43 +10167,43 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <f>Complete!A61</f>
+        <f>'Total Fuel'!A61</f>
         <v>0</v>
       </c>
       <c r="B41" s="5">
-        <f>Complete!B61</f>
+        <f>'Total Fuel'!B61</f>
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <f>Complete!D61</f>
+        <f>'Total Fuel'!D61</f>
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <f>Complete!E61</f>
+        <f>'Total Fuel'!E61</f>
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <f>Complete!F61</f>
+        <f>'Total Fuel'!F61</f>
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <f>Complete!G61</f>
+        <f>'Total Fuel'!G61</f>
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f>Complete!H61</f>
+        <f>'Total Fuel'!H61</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>Complete!J61</f>
+        <f>'Total Fuel'!J61</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>Complete!K61</f>
+        <f>'Total Fuel'!K61</f>
         <v>0</v>
       </c>
       <c r="L41" s="46">
-        <f>Complete!L61</f>
+        <f>'Total Fuel'!L61</f>
         <v>0</v>
       </c>
       <c r="M41" s="46">
@@ -10217,43 +10217,43 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <f>Complete!A62</f>
+        <f>'Total Fuel'!A62</f>
         <v>0</v>
       </c>
       <c r="B42" s="5">
-        <f>Complete!B62</f>
+        <f>'Total Fuel'!B62</f>
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <f>Complete!D62</f>
+        <f>'Total Fuel'!D62</f>
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <f>Complete!E62</f>
+        <f>'Total Fuel'!E62</f>
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <f>Complete!F62</f>
+        <f>'Total Fuel'!F62</f>
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <f>Complete!G62</f>
+        <f>'Total Fuel'!G62</f>
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f>Complete!H62</f>
+        <f>'Total Fuel'!H62</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>Complete!J62</f>
+        <f>'Total Fuel'!J62</f>
         <v>0</v>
       </c>
       <c r="K42">
-        <f>Complete!K62</f>
+        <f>'Total Fuel'!K62</f>
         <v>0</v>
       </c>
       <c r="L42" s="46">
-        <f>Complete!L62</f>
+        <f>'Total Fuel'!L62</f>
         <v>0</v>
       </c>
       <c r="M42" s="46">
@@ -10267,43 +10267,43 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <f>Complete!A63</f>
+        <f>'Total Fuel'!A63</f>
         <v>0</v>
       </c>
       <c r="B43" s="5">
-        <f>Complete!B63</f>
+        <f>'Total Fuel'!B63</f>
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <f>Complete!D63</f>
+        <f>'Total Fuel'!D63</f>
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f>Complete!E63</f>
+        <f>'Total Fuel'!E63</f>
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f>Complete!F63</f>
+        <f>'Total Fuel'!F63</f>
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <f>Complete!G63</f>
+        <f>'Total Fuel'!G63</f>
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f>Complete!H63</f>
+        <f>'Total Fuel'!H63</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>Complete!J63</f>
+        <f>'Total Fuel'!J63</f>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>Complete!K63</f>
+        <f>'Total Fuel'!K63</f>
         <v>0</v>
       </c>
       <c r="L43" s="46">
-        <f>Complete!L63</f>
+        <f>'Total Fuel'!L63</f>
         <v>0</v>
       </c>
       <c r="M43" s="46">
@@ -10317,43 +10317,43 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <f>Complete!A64</f>
+        <f>'Total Fuel'!A64</f>
         <v>0</v>
       </c>
       <c r="B44" s="5">
-        <f>Complete!B64</f>
+        <f>'Total Fuel'!B64</f>
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f>Complete!D64</f>
+        <f>'Total Fuel'!D64</f>
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f>Complete!E64</f>
+        <f>'Total Fuel'!E64</f>
         <v>0</v>
       </c>
       <c r="F44" s="4">
-        <f>Complete!F64</f>
+        <f>'Total Fuel'!F64</f>
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <f>Complete!G64</f>
+        <f>'Total Fuel'!G64</f>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f>Complete!H64</f>
+        <f>'Total Fuel'!H64</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>Complete!J64</f>
+        <f>'Total Fuel'!J64</f>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>Complete!K64</f>
+        <f>'Total Fuel'!K64</f>
         <v>0</v>
       </c>
       <c r="L44" s="46">
-        <f>Complete!L64</f>
+        <f>'Total Fuel'!L64</f>
         <v>0</v>
       </c>
       <c r="M44" s="46">
@@ -10367,43 +10367,43 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <f>Complete!A65</f>
+        <f>'Total Fuel'!A65</f>
         <v>0</v>
       </c>
       <c r="B45" s="5">
-        <f>Complete!B65</f>
+        <f>'Total Fuel'!B65</f>
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f>Complete!D65</f>
+        <f>'Total Fuel'!D65</f>
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <f>Complete!E65</f>
+        <f>'Total Fuel'!E65</f>
         <v>0</v>
       </c>
       <c r="F45" s="4">
-        <f>Complete!F65</f>
+        <f>'Total Fuel'!F65</f>
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <f>Complete!G65</f>
+        <f>'Total Fuel'!G65</f>
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f>Complete!H65</f>
+        <f>'Total Fuel'!H65</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>Complete!J65</f>
+        <f>'Total Fuel'!J65</f>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>Complete!K65</f>
+        <f>'Total Fuel'!K65</f>
         <v>0</v>
       </c>
       <c r="L45" s="46">
-        <f>Complete!L65</f>
+        <f>'Total Fuel'!L65</f>
         <v>0</v>
       </c>
       <c r="M45" s="46">
@@ -10417,43 +10417,43 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <f>Complete!A66</f>
+        <f>'Total Fuel'!A66</f>
         <v>0</v>
       </c>
       <c r="B46" s="5">
-        <f>Complete!B66</f>
+        <f>'Total Fuel'!B66</f>
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f>Complete!D66</f>
+        <f>'Total Fuel'!D66</f>
         <v>0</v>
       </c>
       <c r="E46" s="4">
-        <f>Complete!E66</f>
+        <f>'Total Fuel'!E66</f>
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <f>Complete!F66</f>
+        <f>'Total Fuel'!F66</f>
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <f>Complete!G66</f>
+        <f>'Total Fuel'!G66</f>
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f>Complete!H66</f>
+        <f>'Total Fuel'!H66</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>Complete!J66</f>
+        <f>'Total Fuel'!J66</f>
         <v>0</v>
       </c>
       <c r="K46">
-        <f>Complete!K66</f>
+        <f>'Total Fuel'!K66</f>
         <v>0</v>
       </c>
       <c r="L46" s="46">
-        <f>Complete!L66</f>
+        <f>'Total Fuel'!L66</f>
         <v>0</v>
       </c>
       <c r="M46" s="46">
@@ -10467,43 +10467,43 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <f>Complete!A67</f>
+        <f>'Total Fuel'!A67</f>
         <v>0</v>
       </c>
       <c r="B47" s="5">
-        <f>Complete!B67</f>
+        <f>'Total Fuel'!B67</f>
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <f>Complete!D67</f>
+        <f>'Total Fuel'!D67</f>
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <f>Complete!E67</f>
+        <f>'Total Fuel'!E67</f>
         <v>0</v>
       </c>
       <c r="F47" s="4">
-        <f>Complete!F67</f>
+        <f>'Total Fuel'!F67</f>
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <f>Complete!G67</f>
+        <f>'Total Fuel'!G67</f>
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f>Complete!H67</f>
+        <f>'Total Fuel'!H67</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>Complete!J67</f>
+        <f>'Total Fuel'!J67</f>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>Complete!K67</f>
+        <f>'Total Fuel'!K67</f>
         <v>0</v>
       </c>
       <c r="L47" s="46">
-        <f>Complete!L67</f>
+        <f>'Total Fuel'!L67</f>
         <v>0</v>
       </c>
       <c r="M47" s="46">
@@ -10517,43 +10517,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <f>Complete!A68</f>
+        <f>'Total Fuel'!A68</f>
         <v>0</v>
       </c>
       <c r="B48" s="5">
-        <f>Complete!B68</f>
+        <f>'Total Fuel'!B68</f>
         <v>0</v>
       </c>
       <c r="D48" s="4">
-        <f>Complete!D68</f>
+        <f>'Total Fuel'!D68</f>
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <f>Complete!E68</f>
+        <f>'Total Fuel'!E68</f>
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <f>Complete!F68</f>
+        <f>'Total Fuel'!F68</f>
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <f>Complete!G68</f>
+        <f>'Total Fuel'!G68</f>
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f>Complete!H68</f>
+        <f>'Total Fuel'!H68</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>Complete!J68</f>
+        <f>'Total Fuel'!J68</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>Complete!K68</f>
+        <f>'Total Fuel'!K68</f>
         <v>0</v>
       </c>
       <c r="L48" s="46">
-        <f>Complete!L68</f>
+        <f>'Total Fuel'!L68</f>
         <v>0</v>
       </c>
       <c r="M48" s="46">
@@ -10567,43 +10567,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <f>Complete!A69</f>
+        <f>'Total Fuel'!A69</f>
         <v>0</v>
       </c>
       <c r="B49" s="5">
-        <f>Complete!B69</f>
+        <f>'Total Fuel'!B69</f>
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <f>Complete!D69</f>
+        <f>'Total Fuel'!D69</f>
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <f>Complete!E69</f>
+        <f>'Total Fuel'!E69</f>
         <v>0</v>
       </c>
       <c r="F49" s="4">
-        <f>Complete!F69</f>
+        <f>'Total Fuel'!F69</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <f>Complete!G69</f>
+        <f>'Total Fuel'!G69</f>
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f>Complete!H69</f>
+        <f>'Total Fuel'!H69</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>Complete!J69</f>
+        <f>'Total Fuel'!J69</f>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>Complete!K69</f>
+        <f>'Total Fuel'!K69</f>
         <v>0</v>
       </c>
       <c r="L49" s="46">
-        <f>Complete!L69</f>
+        <f>'Total Fuel'!L69</f>
         <v>0</v>
       </c>
       <c r="M49" s="46">
@@ -10617,43 +10617,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <f>Complete!A70</f>
+        <f>'Total Fuel'!A70</f>
         <v>0</v>
       </c>
       <c r="B50" s="5">
-        <f>Complete!B70</f>
+        <f>'Total Fuel'!B70</f>
         <v>0</v>
       </c>
       <c r="D50" s="4">
-        <f>Complete!D70</f>
+        <f>'Total Fuel'!D70</f>
         <v>0</v>
       </c>
       <c r="E50" s="4">
-        <f>Complete!E70</f>
+        <f>'Total Fuel'!E70</f>
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <f>Complete!F70</f>
+        <f>'Total Fuel'!F70</f>
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <f>Complete!G70</f>
+        <f>'Total Fuel'!G70</f>
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f>Complete!H70</f>
+        <f>'Total Fuel'!H70</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>Complete!J70</f>
+        <f>'Total Fuel'!J70</f>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>Complete!K70</f>
+        <f>'Total Fuel'!K70</f>
         <v>0</v>
       </c>
       <c r="L50" s="46">
-        <f>Complete!L70</f>
+        <f>'Total Fuel'!L70</f>
         <v>0</v>
       </c>
       <c r="M50" s="46">
@@ -10667,43 +10667,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <f>Complete!A71</f>
+        <f>'Total Fuel'!A71</f>
         <v>0</v>
       </c>
       <c r="B51" s="5">
-        <f>Complete!B71</f>
+        <f>'Total Fuel'!B71</f>
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f>Complete!D71</f>
+        <f>'Total Fuel'!D71</f>
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <f>Complete!E71</f>
+        <f>'Total Fuel'!E71</f>
         <v>0</v>
       </c>
       <c r="F51" s="4">
-        <f>Complete!F71</f>
+        <f>'Total Fuel'!F71</f>
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <f>Complete!G71</f>
+        <f>'Total Fuel'!G71</f>
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f>Complete!H71</f>
+        <f>'Total Fuel'!H71</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f>Complete!J71</f>
+        <f>'Total Fuel'!J71</f>
         <v>0</v>
       </c>
       <c r="K51">
-        <f>Complete!K71</f>
+        <f>'Total Fuel'!K71</f>
         <v>0</v>
       </c>
       <c r="L51" s="46">
-        <f>Complete!L71</f>
+        <f>'Total Fuel'!L71</f>
         <v>0</v>
       </c>
       <c r="M51" s="46">
@@ -10717,43 +10717,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <f>Complete!A72</f>
+        <f>'Total Fuel'!A72</f>
         <v>0</v>
       </c>
       <c r="B52" s="5">
-        <f>Complete!B72</f>
+        <f>'Total Fuel'!B72</f>
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <f>Complete!D72</f>
+        <f>'Total Fuel'!D72</f>
         <v>0</v>
       </c>
       <c r="E52" s="4">
-        <f>Complete!E72</f>
+        <f>'Total Fuel'!E72</f>
         <v>0</v>
       </c>
       <c r="F52" s="4">
-        <f>Complete!F72</f>
+        <f>'Total Fuel'!F72</f>
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <f>Complete!G72</f>
+        <f>'Total Fuel'!G72</f>
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f>Complete!H72</f>
+        <f>'Total Fuel'!H72</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>Complete!J72</f>
+        <f>'Total Fuel'!J72</f>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>Complete!K72</f>
+        <f>'Total Fuel'!K72</f>
         <v>0</v>
       </c>
       <c r="L52" s="46">
-        <f>Complete!L72</f>
+        <f>'Total Fuel'!L72</f>
         <v>0</v>
       </c>
       <c r="M52" s="46">
@@ -10767,43 +10767,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <f>Complete!A73</f>
+        <f>'Total Fuel'!A73</f>
         <v>0</v>
       </c>
       <c r="B53" s="5">
-        <f>Complete!B73</f>
+        <f>'Total Fuel'!B73</f>
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f>Complete!D73</f>
+        <f>'Total Fuel'!D73</f>
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <f>Complete!E73</f>
+        <f>'Total Fuel'!E73</f>
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <f>Complete!F73</f>
+        <f>'Total Fuel'!F73</f>
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <f>Complete!G73</f>
+        <f>'Total Fuel'!G73</f>
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f>Complete!H73</f>
+        <f>'Total Fuel'!H73</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>Complete!J73</f>
+        <f>'Total Fuel'!J73</f>
         <v>0</v>
       </c>
       <c r="K53">
-        <f>Complete!K73</f>
+        <f>'Total Fuel'!K73</f>
         <v>0</v>
       </c>
       <c r="L53" s="46">
-        <f>Complete!L73</f>
+        <f>'Total Fuel'!L73</f>
         <v>0</v>
       </c>
       <c r="M53" s="46">
@@ -10817,43 +10817,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <f>Complete!A74</f>
+        <f>'Total Fuel'!A74</f>
         <v>0</v>
       </c>
       <c r="B54" s="5">
-        <f>Complete!B74</f>
+        <f>'Total Fuel'!B74</f>
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f>Complete!D74</f>
+        <f>'Total Fuel'!D74</f>
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f>Complete!E74</f>
+        <f>'Total Fuel'!E74</f>
         <v>0</v>
       </c>
       <c r="F54" s="4">
-        <f>Complete!F74</f>
+        <f>'Total Fuel'!F74</f>
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <f>Complete!G74</f>
+        <f>'Total Fuel'!G74</f>
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f>Complete!H74</f>
+        <f>'Total Fuel'!H74</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>Complete!J74</f>
+        <f>'Total Fuel'!J74</f>
         <v>0</v>
       </c>
       <c r="K54">
-        <f>Complete!K74</f>
+        <f>'Total Fuel'!K74</f>
         <v>0</v>
       </c>
       <c r="L54" s="46">
-        <f>Complete!L74</f>
+        <f>'Total Fuel'!L74</f>
         <v>0</v>
       </c>
       <c r="M54" s="46">
@@ -10867,43 +10867,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <f>Complete!A75</f>
+        <f>'Total Fuel'!A75</f>
         <v>0</v>
       </c>
       <c r="B55" s="5">
-        <f>Complete!B75</f>
+        <f>'Total Fuel'!B75</f>
         <v>0</v>
       </c>
       <c r="D55" s="4">
-        <f>Complete!D75</f>
+        <f>'Total Fuel'!D75</f>
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <f>Complete!E75</f>
+        <f>'Total Fuel'!E75</f>
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <f>Complete!F75</f>
+        <f>'Total Fuel'!F75</f>
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <f>Complete!G75</f>
+        <f>'Total Fuel'!G75</f>
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f>Complete!H75</f>
+        <f>'Total Fuel'!H75</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f>Complete!J75</f>
+        <f>'Total Fuel'!J75</f>
         <v>0</v>
       </c>
       <c r="K55">
-        <f>Complete!K75</f>
+        <f>'Total Fuel'!K75</f>
         <v>0</v>
       </c>
       <c r="L55" s="46">
-        <f>Complete!L75</f>
+        <f>'Total Fuel'!L75</f>
         <v>0</v>
       </c>
       <c r="M55" s="46">
@@ -10917,43 +10917,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <f>Complete!A76</f>
+        <f>'Total Fuel'!A76</f>
         <v>0</v>
       </c>
       <c r="B56" s="5">
-        <f>Complete!B76</f>
+        <f>'Total Fuel'!B76</f>
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <f>Complete!D76</f>
+        <f>'Total Fuel'!D76</f>
         <v>0</v>
       </c>
       <c r="E56" s="4">
-        <f>Complete!E76</f>
+        <f>'Total Fuel'!E76</f>
         <v>0</v>
       </c>
       <c r="F56" s="4">
-        <f>Complete!F76</f>
+        <f>'Total Fuel'!F76</f>
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <f>Complete!G76</f>
+        <f>'Total Fuel'!G76</f>
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f>Complete!H76</f>
+        <f>'Total Fuel'!H76</f>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>Complete!J76</f>
+        <f>'Total Fuel'!J76</f>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>Complete!K76</f>
+        <f>'Total Fuel'!K76</f>
         <v>0</v>
       </c>
       <c r="L56" s="46">
-        <f>Complete!L76</f>
+        <f>'Total Fuel'!L76</f>
         <v>0</v>
       </c>
       <c r="M56" s="46">
@@ -10967,43 +10967,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <f>Complete!A77</f>
+        <f>'Total Fuel'!A77</f>
         <v>0</v>
       </c>
       <c r="B57" s="5">
-        <f>Complete!B77</f>
+        <f>'Total Fuel'!B77</f>
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <f>Complete!D77</f>
+        <f>'Total Fuel'!D77</f>
         <v>0</v>
       </c>
       <c r="E57" s="4">
-        <f>Complete!E77</f>
+        <f>'Total Fuel'!E77</f>
         <v>0</v>
       </c>
       <c r="F57" s="4">
-        <f>Complete!F77</f>
+        <f>'Total Fuel'!F77</f>
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <f>Complete!G77</f>
+        <f>'Total Fuel'!G77</f>
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f>Complete!H77</f>
+        <f>'Total Fuel'!H77</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>Complete!J77</f>
+        <f>'Total Fuel'!J77</f>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>Complete!K77</f>
+        <f>'Total Fuel'!K77</f>
         <v>0</v>
       </c>
       <c r="L57" s="46">
-        <f>Complete!L77</f>
+        <f>'Total Fuel'!L77</f>
         <v>0</v>
       </c>
       <c r="M57" s="46">
@@ -11017,43 +11017,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <f>Complete!A78</f>
+        <f>'Total Fuel'!A78</f>
         <v>0</v>
       </c>
       <c r="B58" s="5">
-        <f>Complete!B78</f>
+        <f>'Total Fuel'!B78</f>
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <f>Complete!D78</f>
+        <f>'Total Fuel'!D78</f>
         <v>0</v>
       </c>
       <c r="E58" s="4">
-        <f>Complete!E78</f>
+        <f>'Total Fuel'!E78</f>
         <v>0</v>
       </c>
       <c r="F58" s="4">
-        <f>Complete!F78</f>
+        <f>'Total Fuel'!F78</f>
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <f>Complete!G78</f>
+        <f>'Total Fuel'!G78</f>
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f>Complete!H78</f>
+        <f>'Total Fuel'!H78</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>Complete!J78</f>
+        <f>'Total Fuel'!J78</f>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>Complete!K78</f>
+        <f>'Total Fuel'!K78</f>
         <v>0</v>
       </c>
       <c r="L58" s="46">
-        <f>Complete!L78</f>
+        <f>'Total Fuel'!L78</f>
         <v>0</v>
       </c>
       <c r="M58" s="46">
@@ -11067,43 +11067,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <f>Complete!A79</f>
+        <f>'Total Fuel'!A79</f>
         <v>0</v>
       </c>
       <c r="B59" s="5">
-        <f>Complete!B79</f>
+        <f>'Total Fuel'!B79</f>
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f>Complete!D79</f>
+        <f>'Total Fuel'!D79</f>
         <v>0</v>
       </c>
       <c r="E59" s="4">
-        <f>Complete!E79</f>
+        <f>'Total Fuel'!E79</f>
         <v>0</v>
       </c>
       <c r="F59" s="4">
-        <f>Complete!F79</f>
+        <f>'Total Fuel'!F79</f>
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <f>Complete!G79</f>
+        <f>'Total Fuel'!G79</f>
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f>Complete!H79</f>
+        <f>'Total Fuel'!H79</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f>Complete!J79</f>
+        <f>'Total Fuel'!J79</f>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>Complete!K79</f>
+        <f>'Total Fuel'!K79</f>
         <v>0</v>
       </c>
       <c r="L59" s="46">
-        <f>Complete!L79</f>
+        <f>'Total Fuel'!L79</f>
         <v>0</v>
       </c>
       <c r="M59" s="46">
@@ -11117,43 +11117,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <f>Complete!A80</f>
+        <f>'Total Fuel'!A80</f>
         <v>0</v>
       </c>
       <c r="B60" s="5">
-        <f>Complete!B80</f>
+        <f>'Total Fuel'!B80</f>
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <f>Complete!D80</f>
+        <f>'Total Fuel'!D80</f>
         <v>0</v>
       </c>
       <c r="E60" s="4">
-        <f>Complete!E80</f>
+        <f>'Total Fuel'!E80</f>
         <v>0</v>
       </c>
       <c r="F60" s="4">
-        <f>Complete!F80</f>
+        <f>'Total Fuel'!F80</f>
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <f>Complete!G80</f>
+        <f>'Total Fuel'!G80</f>
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f>Complete!H80</f>
+        <f>'Total Fuel'!H80</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>Complete!J80</f>
+        <f>'Total Fuel'!J80</f>
         <v>0</v>
       </c>
       <c r="K60">
-        <f>Complete!K80</f>
+        <f>'Total Fuel'!K80</f>
         <v>0</v>
       </c>
       <c r="L60" s="46">
-        <f>Complete!L80</f>
+        <f>'Total Fuel'!L80</f>
         <v>0</v>
       </c>
       <c r="M60" s="46">
@@ -11167,43 +11167,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <f>Complete!A81</f>
+        <f>'Total Fuel'!A81</f>
         <v>0</v>
       </c>
       <c r="B61" s="5">
-        <f>Complete!B81</f>
+        <f>'Total Fuel'!B81</f>
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <f>Complete!D81</f>
+        <f>'Total Fuel'!D81</f>
         <v>0</v>
       </c>
       <c r="E61" s="4">
-        <f>Complete!E81</f>
+        <f>'Total Fuel'!E81</f>
         <v>0</v>
       </c>
       <c r="F61" s="4">
-        <f>Complete!F81</f>
+        <f>'Total Fuel'!F81</f>
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <f>Complete!G81</f>
+        <f>'Total Fuel'!G81</f>
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f>Complete!H81</f>
+        <f>'Total Fuel'!H81</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>Complete!J81</f>
+        <f>'Total Fuel'!J81</f>
         <v>0</v>
       </c>
       <c r="K61">
-        <f>Complete!K81</f>
+        <f>'Total Fuel'!K81</f>
         <v>0</v>
       </c>
       <c r="L61" s="46">
-        <f>Complete!L81</f>
+        <f>'Total Fuel'!L81</f>
         <v>0</v>
       </c>
       <c r="M61" s="46">
@@ -11217,43 +11217,43 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <f>Complete!A82</f>
+        <f>'Total Fuel'!A82</f>
         <v>0</v>
       </c>
       <c r="B62" s="5">
-        <f>Complete!B82</f>
+        <f>'Total Fuel'!B82</f>
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f>Complete!D82</f>
+        <f>'Total Fuel'!D82</f>
         <v>0</v>
       </c>
       <c r="E62" s="4">
-        <f>Complete!E82</f>
+        <f>'Total Fuel'!E82</f>
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <f>Complete!F82</f>
+        <f>'Total Fuel'!F82</f>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f>Complete!G82</f>
+        <f>'Total Fuel'!G82</f>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f>Complete!H82</f>
+        <f>'Total Fuel'!H82</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>Complete!J82</f>
+        <f>'Total Fuel'!J82</f>
         <v>0</v>
       </c>
       <c r="K62">
-        <f>Complete!K82</f>
+        <f>'Total Fuel'!K82</f>
         <v>0</v>
       </c>
       <c r="L62" s="46">
-        <f>Complete!L82</f>
+        <f>'Total Fuel'!L82</f>
         <v>0</v>
       </c>
       <c r="M62" s="46">
@@ -11267,43 +11267,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <f>Complete!A83</f>
+        <f>'Total Fuel'!A83</f>
         <v>0</v>
       </c>
       <c r="B63" s="5">
-        <f>Complete!B83</f>
+        <f>'Total Fuel'!B83</f>
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <f>Complete!D83</f>
+        <f>'Total Fuel'!D83</f>
         <v>0</v>
       </c>
       <c r="E63" s="4">
-        <f>Complete!E83</f>
+        <f>'Total Fuel'!E83</f>
         <v>0</v>
       </c>
       <c r="F63" s="4">
-        <f>Complete!F83</f>
+        <f>'Total Fuel'!F83</f>
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <f>Complete!G83</f>
+        <f>'Total Fuel'!G83</f>
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f>Complete!H83</f>
+        <f>'Total Fuel'!H83</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>Complete!J83</f>
+        <f>'Total Fuel'!J83</f>
         <v>0</v>
       </c>
       <c r="K63">
-        <f>Complete!K83</f>
+        <f>'Total Fuel'!K83</f>
         <v>0</v>
       </c>
       <c r="L63" s="46">
-        <f>Complete!L83</f>
+        <f>'Total Fuel'!L83</f>
         <v>0</v>
       </c>
       <c r="M63" s="46">
@@ -11317,43 +11317,43 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <f>Complete!A84</f>
+        <f>'Total Fuel'!A84</f>
         <v>0</v>
       </c>
       <c r="B64" s="5">
-        <f>Complete!B84</f>
+        <f>'Total Fuel'!B84</f>
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <f>Complete!D84</f>
+        <f>'Total Fuel'!D84</f>
         <v>0</v>
       </c>
       <c r="E64" s="4">
-        <f>Complete!E84</f>
+        <f>'Total Fuel'!E84</f>
         <v>0</v>
       </c>
       <c r="F64" s="4">
-        <f>Complete!F84</f>
+        <f>'Total Fuel'!F84</f>
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f>Complete!G84</f>
+        <f>'Total Fuel'!G84</f>
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f>Complete!H84</f>
+        <f>'Total Fuel'!H84</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>Complete!J84</f>
+        <f>'Total Fuel'!J84</f>
         <v>0</v>
       </c>
       <c r="K64">
-        <f>Complete!K84</f>
+        <f>'Total Fuel'!K84</f>
         <v>0</v>
       </c>
       <c r="L64" s="46">
-        <f>Complete!L84</f>
+        <f>'Total Fuel'!L84</f>
         <v>0</v>
       </c>
       <c r="M64" s="46">
@@ -11367,43 +11367,43 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <f>Complete!A85</f>
+        <f>'Total Fuel'!A85</f>
         <v>0</v>
       </c>
       <c r="B65" s="5">
-        <f>Complete!B85</f>
+        <f>'Total Fuel'!B85</f>
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <f>Complete!D85</f>
+        <f>'Total Fuel'!D85</f>
         <v>0</v>
       </c>
       <c r="E65" s="4">
-        <f>Complete!E85</f>
+        <f>'Total Fuel'!E85</f>
         <v>0</v>
       </c>
       <c r="F65" s="4">
-        <f>Complete!F85</f>
+        <f>'Total Fuel'!F85</f>
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f>Complete!G85</f>
+        <f>'Total Fuel'!G85</f>
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f>Complete!H85</f>
+        <f>'Total Fuel'!H85</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>Complete!J85</f>
+        <f>'Total Fuel'!J85</f>
         <v>0</v>
       </c>
       <c r="K65">
-        <f>Complete!K85</f>
+        <f>'Total Fuel'!K85</f>
         <v>0</v>
       </c>
       <c r="L65" s="46">
-        <f>Complete!L85</f>
+        <f>'Total Fuel'!L85</f>
         <v>0</v>
       </c>
       <c r="M65" s="46">
@@ -11417,43 +11417,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <f>Complete!A86</f>
+        <f>'Total Fuel'!A86</f>
         <v>0</v>
       </c>
       <c r="B66" s="5">
-        <f>Complete!B86</f>
+        <f>'Total Fuel'!B86</f>
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <f>Complete!D86</f>
+        <f>'Total Fuel'!D86</f>
         <v>0</v>
       </c>
       <c r="E66" s="4">
-        <f>Complete!E86</f>
+        <f>'Total Fuel'!E86</f>
         <v>0</v>
       </c>
       <c r="F66" s="4">
-        <f>Complete!F86</f>
+        <f>'Total Fuel'!F86</f>
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <f>Complete!G86</f>
+        <f>'Total Fuel'!G86</f>
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f>Complete!H86</f>
+        <f>'Total Fuel'!H86</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>Complete!J86</f>
+        <f>'Total Fuel'!J86</f>
         <v>0</v>
       </c>
       <c r="K66">
-        <f>Complete!K86</f>
+        <f>'Total Fuel'!K86</f>
         <v>0</v>
       </c>
       <c r="L66" s="46">
-        <f>Complete!L86</f>
+        <f>'Total Fuel'!L86</f>
         <v>0</v>
       </c>
       <c r="M66" s="46">
@@ -11467,43 +11467,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <f>Complete!A87</f>
+        <f>'Total Fuel'!A87</f>
         <v>0</v>
       </c>
       <c r="B67" s="5">
-        <f>Complete!B87</f>
+        <f>'Total Fuel'!B87</f>
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <f>Complete!D87</f>
+        <f>'Total Fuel'!D87</f>
         <v>0</v>
       </c>
       <c r="E67" s="4">
-        <f>Complete!E87</f>
+        <f>'Total Fuel'!E87</f>
         <v>0</v>
       </c>
       <c r="F67" s="4">
-        <f>Complete!F87</f>
+        <f>'Total Fuel'!F87</f>
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <f>Complete!G87</f>
+        <f>'Total Fuel'!G87</f>
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f>Complete!H87</f>
+        <f>'Total Fuel'!H87</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>Complete!J87</f>
+        <f>'Total Fuel'!J87</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f>Complete!K87</f>
+        <f>'Total Fuel'!K87</f>
         <v>0</v>
       </c>
       <c r="L67" s="46">
-        <f>Complete!L87</f>
+        <f>'Total Fuel'!L87</f>
         <v>0</v>
       </c>
       <c r="M67" s="46">
@@ -11517,43 +11517,43 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <f>Complete!A88</f>
+        <f>'Total Fuel'!A88</f>
         <v>0</v>
       </c>
       <c r="B68" s="5">
-        <f>Complete!B88</f>
+        <f>'Total Fuel'!B88</f>
         <v>0</v>
       </c>
       <c r="D68" s="4">
-        <f>Complete!D88</f>
+        <f>'Total Fuel'!D88</f>
         <v>0</v>
       </c>
       <c r="E68" s="4">
-        <f>Complete!E88</f>
+        <f>'Total Fuel'!E88</f>
         <v>0</v>
       </c>
       <c r="F68" s="4">
-        <f>Complete!F88</f>
+        <f>'Total Fuel'!F88</f>
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <f>Complete!G88</f>
+        <f>'Total Fuel'!G88</f>
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f>Complete!H88</f>
+        <f>'Total Fuel'!H88</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>Complete!J88</f>
+        <f>'Total Fuel'!J88</f>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>Complete!K88</f>
+        <f>'Total Fuel'!K88</f>
         <v>0</v>
       </c>
       <c r="L68" s="46">
-        <f>Complete!L88</f>
+        <f>'Total Fuel'!L88</f>
         <v>0</v>
       </c>
       <c r="M68" s="46">
@@ -11567,43 +11567,43 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <f>Complete!A89</f>
+        <f>'Total Fuel'!A89</f>
         <v>0</v>
       </c>
       <c r="B69" s="5">
-        <f>Complete!B89</f>
+        <f>'Total Fuel'!B89</f>
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <f>Complete!D89</f>
+        <f>'Total Fuel'!D89</f>
         <v>0</v>
       </c>
       <c r="E69" s="4">
-        <f>Complete!E89</f>
+        <f>'Total Fuel'!E89</f>
         <v>0</v>
       </c>
       <c r="F69" s="4">
-        <f>Complete!F89</f>
+        <f>'Total Fuel'!F89</f>
         <v>0</v>
       </c>
       <c r="G69" s="3">
-        <f>Complete!G89</f>
+        <f>'Total Fuel'!G89</f>
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f>Complete!H89</f>
+        <f>'Total Fuel'!H89</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>Complete!J89</f>
+        <f>'Total Fuel'!J89</f>
         <v>0</v>
       </c>
       <c r="K69">
-        <f>Complete!K89</f>
+        <f>'Total Fuel'!K89</f>
         <v>0</v>
       </c>
       <c r="L69" s="46">
-        <f>Complete!L89</f>
+        <f>'Total Fuel'!L89</f>
         <v>0</v>
       </c>
       <c r="M69" s="46">
@@ -11617,43 +11617,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <f>Complete!A90</f>
+        <f>'Total Fuel'!A90</f>
         <v>0</v>
       </c>
       <c r="B70" s="5">
-        <f>Complete!B90</f>
+        <f>'Total Fuel'!B90</f>
         <v>0</v>
       </c>
       <c r="D70" s="4">
-        <f>Complete!D90</f>
+        <f>'Total Fuel'!D90</f>
         <v>0</v>
       </c>
       <c r="E70" s="4">
-        <f>Complete!E90</f>
+        <f>'Total Fuel'!E90</f>
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <f>Complete!F90</f>
+        <f>'Total Fuel'!F90</f>
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <f>Complete!G90</f>
+        <f>'Total Fuel'!G90</f>
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f>Complete!H90</f>
+        <f>'Total Fuel'!H90</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>Complete!J90</f>
+        <f>'Total Fuel'!J90</f>
         <v>0</v>
       </c>
       <c r="K70">
-        <f>Complete!K90</f>
+        <f>'Total Fuel'!K90</f>
         <v>0</v>
       </c>
       <c r="L70" s="46">
-        <f>Complete!L90</f>
+        <f>'Total Fuel'!L90</f>
         <v>0</v>
       </c>
       <c r="M70" s="46">
@@ -11667,43 +11667,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <f>Complete!A91</f>
+        <f>'Total Fuel'!A91</f>
         <v>0</v>
       </c>
       <c r="B71" s="5">
-        <f>Complete!B91</f>
+        <f>'Total Fuel'!B91</f>
         <v>0</v>
       </c>
       <c r="D71" s="4">
-        <f>Complete!D91</f>
+        <f>'Total Fuel'!D91</f>
         <v>0</v>
       </c>
       <c r="E71" s="4">
-        <f>Complete!E91</f>
+        <f>'Total Fuel'!E91</f>
         <v>0</v>
       </c>
       <c r="F71" s="4">
-        <f>Complete!F91</f>
+        <f>'Total Fuel'!F91</f>
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <f>Complete!G91</f>
+        <f>'Total Fuel'!G91</f>
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f>Complete!H91</f>
+        <f>'Total Fuel'!H91</f>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>Complete!J91</f>
+        <f>'Total Fuel'!J91</f>
         <v>0</v>
       </c>
       <c r="K71">
-        <f>Complete!K91</f>
+        <f>'Total Fuel'!K91</f>
         <v>0</v>
       </c>
       <c r="L71" s="46">
-        <f>Complete!L91</f>
+        <f>'Total Fuel'!L91</f>
         <v>0</v>
       </c>
       <c r="M71" s="46">
@@ -11717,43 +11717,43 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <f>Complete!A92</f>
+        <f>'Total Fuel'!A92</f>
         <v>0</v>
       </c>
       <c r="B72" s="5">
-        <f>Complete!B92</f>
+        <f>'Total Fuel'!B92</f>
         <v>0</v>
       </c>
       <c r="D72" s="4">
-        <f>Complete!D92</f>
+        <f>'Total Fuel'!D92</f>
         <v>0</v>
       </c>
       <c r="E72" s="4">
-        <f>Complete!E92</f>
+        <f>'Total Fuel'!E92</f>
         <v>0</v>
       </c>
       <c r="F72" s="4">
-        <f>Complete!F92</f>
+        <f>'Total Fuel'!F92</f>
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <f>Complete!G92</f>
+        <f>'Total Fuel'!G92</f>
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f>Complete!H92</f>
+        <f>'Total Fuel'!H92</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>Complete!J92</f>
+        <f>'Total Fuel'!J92</f>
         <v>0</v>
       </c>
       <c r="K72">
-        <f>Complete!K92</f>
+        <f>'Total Fuel'!K92</f>
         <v>0</v>
       </c>
       <c r="L72" s="46">
-        <f>Complete!L92</f>
+        <f>'Total Fuel'!L92</f>
         <v>0</v>
       </c>
       <c r="M72" s="46">
@@ -11767,43 +11767,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <f>Complete!A93</f>
+        <f>'Total Fuel'!A93</f>
         <v>0</v>
       </c>
       <c r="B73" s="5">
-        <f>Complete!B93</f>
+        <f>'Total Fuel'!B93</f>
         <v>0</v>
       </c>
       <c r="D73" s="4">
-        <f>Complete!D93</f>
+        <f>'Total Fuel'!D93</f>
         <v>0</v>
       </c>
       <c r="E73" s="4">
-        <f>Complete!E93</f>
+        <f>'Total Fuel'!E93</f>
         <v>0</v>
       </c>
       <c r="F73" s="4">
-        <f>Complete!F93</f>
+        <f>'Total Fuel'!F93</f>
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <f>Complete!G93</f>
+        <f>'Total Fuel'!G93</f>
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f>Complete!H93</f>
+        <f>'Total Fuel'!H93</f>
         <v>0</v>
       </c>
       <c r="J73">
-        <f>Complete!J93</f>
+        <f>'Total Fuel'!J93</f>
         <v>0</v>
       </c>
       <c r="K73">
-        <f>Complete!K93</f>
+        <f>'Total Fuel'!K93</f>
         <v>0</v>
       </c>
       <c r="L73" s="46">
-        <f>Complete!L93</f>
+        <f>'Total Fuel'!L93</f>
         <v>0</v>
       </c>
       <c r="M73" s="46">
@@ -11817,43 +11817,43 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <f>Complete!A94</f>
+        <f>'Total Fuel'!A94</f>
         <v>0</v>
       </c>
       <c r="B74" s="5">
-        <f>Complete!B94</f>
+        <f>'Total Fuel'!B94</f>
         <v>0</v>
       </c>
       <c r="D74" s="4">
-        <f>Complete!D94</f>
+        <f>'Total Fuel'!D94</f>
         <v>0</v>
       </c>
       <c r="E74" s="4">
-        <f>Complete!E94</f>
+        <f>'Total Fuel'!E94</f>
         <v>0</v>
       </c>
       <c r="F74" s="4">
-        <f>Complete!F94</f>
+        <f>'Total Fuel'!F94</f>
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <f>Complete!G94</f>
+        <f>'Total Fuel'!G94</f>
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f>Complete!H94</f>
+        <f>'Total Fuel'!H94</f>
         <v>0</v>
       </c>
       <c r="J74">
-        <f>Complete!J94</f>
+        <f>'Total Fuel'!J94</f>
         <v>0</v>
       </c>
       <c r="K74">
-        <f>Complete!K94</f>
+        <f>'Total Fuel'!K94</f>
         <v>0</v>
       </c>
       <c r="L74" s="46">
-        <f>Complete!L94</f>
+        <f>'Total Fuel'!L94</f>
         <v>0</v>
       </c>
       <c r="M74" s="46">
@@ -11867,43 +11867,43 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <f>Complete!A95</f>
+        <f>'Total Fuel'!A95</f>
         <v>0</v>
       </c>
       <c r="B75" s="5">
-        <f>Complete!B95</f>
+        <f>'Total Fuel'!B95</f>
         <v>0</v>
       </c>
       <c r="D75" s="4">
-        <f>Complete!D95</f>
+        <f>'Total Fuel'!D95</f>
         <v>0</v>
       </c>
       <c r="E75" s="4">
-        <f>Complete!E95</f>
+        <f>'Total Fuel'!E95</f>
         <v>0</v>
       </c>
       <c r="F75" s="4">
-        <f>Complete!F95</f>
+        <f>'Total Fuel'!F95</f>
         <v>0</v>
       </c>
       <c r="G75" s="3">
-        <f>Complete!G95</f>
+        <f>'Total Fuel'!G95</f>
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f>Complete!H95</f>
+        <f>'Total Fuel'!H95</f>
         <v>0</v>
       </c>
       <c r="J75">
-        <f>Complete!J95</f>
+        <f>'Total Fuel'!J95</f>
         <v>0</v>
       </c>
       <c r="K75">
-        <f>Complete!K95</f>
+        <f>'Total Fuel'!K95</f>
         <v>0</v>
       </c>
       <c r="L75" s="46">
-        <f>Complete!L95</f>
+        <f>'Total Fuel'!L95</f>
         <v>0</v>
       </c>
       <c r="M75" s="46">
@@ -11917,43 +11917,43 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <f>Complete!A96</f>
+        <f>'Total Fuel'!A96</f>
         <v>0</v>
       </c>
       <c r="B76" s="5">
-        <f>Complete!B96</f>
+        <f>'Total Fuel'!B96</f>
         <v>0</v>
       </c>
       <c r="D76" s="4">
-        <f>Complete!D96</f>
+        <f>'Total Fuel'!D96</f>
         <v>0</v>
       </c>
       <c r="E76" s="4">
-        <f>Complete!E96</f>
+        <f>'Total Fuel'!E96</f>
         <v>0</v>
       </c>
       <c r="F76" s="4">
-        <f>Complete!F96</f>
+        <f>'Total Fuel'!F96</f>
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <f>Complete!G96</f>
+        <f>'Total Fuel'!G96</f>
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f>Complete!H96</f>
+        <f>'Total Fuel'!H96</f>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>Complete!J96</f>
+        <f>'Total Fuel'!J96</f>
         <v>0</v>
       </c>
       <c r="K76">
-        <f>Complete!K96</f>
+        <f>'Total Fuel'!K96</f>
         <v>0</v>
       </c>
       <c r="L76" s="46">
-        <f>Complete!L96</f>
+        <f>'Total Fuel'!L96</f>
         <v>0</v>
       </c>
       <c r="M76" s="46">
@@ -11967,43 +11967,43 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <f>Complete!A97</f>
+        <f>'Total Fuel'!A97</f>
         <v>0</v>
       </c>
       <c r="B77" s="5">
-        <f>Complete!B97</f>
+        <f>'Total Fuel'!B97</f>
         <v>0</v>
       </c>
       <c r="D77" s="4">
-        <f>Complete!D97</f>
+        <f>'Total Fuel'!D97</f>
         <v>0</v>
       </c>
       <c r="E77" s="4">
-        <f>Complete!E97</f>
+        <f>'Total Fuel'!E97</f>
         <v>0</v>
       </c>
       <c r="F77" s="4">
-        <f>Complete!F97</f>
+        <f>'Total Fuel'!F97</f>
         <v>0</v>
       </c>
       <c r="G77" s="3">
-        <f>Complete!G97</f>
+        <f>'Total Fuel'!G97</f>
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f>Complete!H97</f>
+        <f>'Total Fuel'!H97</f>
         <v>0</v>
       </c>
       <c r="J77">
-        <f>Complete!J97</f>
+        <f>'Total Fuel'!J97</f>
         <v>0</v>
       </c>
       <c r="K77">
-        <f>Complete!K97</f>
+        <f>'Total Fuel'!K97</f>
         <v>0</v>
       </c>
       <c r="L77" s="46">
-        <f>Complete!L97</f>
+        <f>'Total Fuel'!L97</f>
         <v>0</v>
       </c>
       <c r="M77" s="46">
@@ -12017,43 +12017,43 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <f>Complete!A98</f>
+        <f>'Total Fuel'!A98</f>
         <v>0</v>
       </c>
       <c r="B78" s="5">
-        <f>Complete!B98</f>
+        <f>'Total Fuel'!B98</f>
         <v>0</v>
       </c>
       <c r="D78" s="4">
-        <f>Complete!D98</f>
+        <f>'Total Fuel'!D98</f>
         <v>0</v>
       </c>
       <c r="E78" s="4">
-        <f>Complete!E98</f>
+        <f>'Total Fuel'!E98</f>
         <v>0</v>
       </c>
       <c r="F78" s="4">
-        <f>Complete!F98</f>
+        <f>'Total Fuel'!F98</f>
         <v>0</v>
       </c>
       <c r="G78" s="3">
-        <f>Complete!G98</f>
+        <f>'Total Fuel'!G98</f>
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f>Complete!H98</f>
+        <f>'Total Fuel'!H98</f>
         <v>0</v>
       </c>
       <c r="J78">
-        <f>Complete!J98</f>
+        <f>'Total Fuel'!J98</f>
         <v>0</v>
       </c>
       <c r="K78">
-        <f>Complete!K98</f>
+        <f>'Total Fuel'!K98</f>
         <v>0</v>
       </c>
       <c r="L78" s="46">
-        <f>Complete!L98</f>
+        <f>'Total Fuel'!L98</f>
         <v>0</v>
       </c>
       <c r="M78" s="46">
@@ -12067,43 +12067,43 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <f>Complete!A99</f>
+        <f>'Total Fuel'!A99</f>
         <v>0</v>
       </c>
       <c r="B79" s="5">
-        <f>Complete!B99</f>
+        <f>'Total Fuel'!B99</f>
         <v>0</v>
       </c>
       <c r="D79" s="4">
-        <f>Complete!D99</f>
+        <f>'Total Fuel'!D99</f>
         <v>0</v>
       </c>
       <c r="E79" s="4">
-        <f>Complete!E99</f>
+        <f>'Total Fuel'!E99</f>
         <v>0</v>
       </c>
       <c r="F79" s="4">
-        <f>Complete!F99</f>
+        <f>'Total Fuel'!F99</f>
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <f>Complete!G99</f>
+        <f>'Total Fuel'!G99</f>
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f>Complete!H99</f>
+        <f>'Total Fuel'!H99</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f>Complete!J99</f>
+        <f>'Total Fuel'!J99</f>
         <v>0</v>
       </c>
       <c r="K79">
-        <f>Complete!K99</f>
+        <f>'Total Fuel'!K99</f>
         <v>0</v>
       </c>
       <c r="L79" s="46">
-        <f>Complete!L99</f>
+        <f>'Total Fuel'!L99</f>
         <v>0</v>
       </c>
       <c r="M79" s="46">
@@ -12117,43 +12117,43 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <f>Complete!A100</f>
+        <f>'Total Fuel'!A100</f>
         <v>0</v>
       </c>
       <c r="B80" s="5">
-        <f>Complete!B100</f>
+        <f>'Total Fuel'!B100</f>
         <v>0</v>
       </c>
       <c r="D80" s="4">
-        <f>Complete!D100</f>
+        <f>'Total Fuel'!D100</f>
         <v>0</v>
       </c>
       <c r="E80" s="4">
-        <f>Complete!E100</f>
+        <f>'Total Fuel'!E100</f>
         <v>0</v>
       </c>
       <c r="F80" s="4">
-        <f>Complete!F100</f>
+        <f>'Total Fuel'!F100</f>
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <f>Complete!G100</f>
+        <f>'Total Fuel'!G100</f>
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f>Complete!H100</f>
+        <f>'Total Fuel'!H100</f>
         <v>0</v>
       </c>
       <c r="J80">
-        <f>Complete!J100</f>
+        <f>'Total Fuel'!J100</f>
         <v>0</v>
       </c>
       <c r="K80">
-        <f>Complete!K100</f>
+        <f>'Total Fuel'!K100</f>
         <v>0</v>
       </c>
       <c r="L80" s="46">
-        <f>Complete!L100</f>
+        <f>'Total Fuel'!L100</f>
         <v>0</v>
       </c>
       <c r="M80" s="46">
@@ -12167,43 +12167,43 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <f>Complete!A101</f>
+        <f>'Total Fuel'!A101</f>
         <v>0</v>
       </c>
       <c r="B81" s="5">
-        <f>Complete!B101</f>
+        <f>'Total Fuel'!B101</f>
         <v>0</v>
       </c>
       <c r="D81" s="4">
-        <f>Complete!D101</f>
+        <f>'Total Fuel'!D101</f>
         <v>0</v>
       </c>
       <c r="E81" s="4">
-        <f>Complete!E101</f>
+        <f>'Total Fuel'!E101</f>
         <v>0</v>
       </c>
       <c r="F81" s="4">
-        <f>Complete!F101</f>
+        <f>'Total Fuel'!F101</f>
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <f>Complete!G101</f>
+        <f>'Total Fuel'!G101</f>
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f>Complete!H101</f>
+        <f>'Total Fuel'!H101</f>
         <v>0</v>
       </c>
       <c r="J81">
-        <f>Complete!J101</f>
+        <f>'Total Fuel'!J101</f>
         <v>0</v>
       </c>
       <c r="K81">
-        <f>Complete!K101</f>
+        <f>'Total Fuel'!K101</f>
         <v>0</v>
       </c>
       <c r="L81" s="46">
-        <f>Complete!L101</f>
+        <f>'Total Fuel'!L101</f>
         <v>0</v>
       </c>
       <c r="M81" s="46">
@@ -12217,43 +12217,43 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <f>Complete!A102</f>
+        <f>'Total Fuel'!A102</f>
         <v>0</v>
       </c>
       <c r="B82" s="5">
-        <f>Complete!B102</f>
+        <f>'Total Fuel'!B102</f>
         <v>0</v>
       </c>
       <c r="D82" s="4">
-        <f>Complete!D102</f>
+        <f>'Total Fuel'!D102</f>
         <v>0</v>
       </c>
       <c r="E82" s="4">
-        <f>Complete!E102</f>
+        <f>'Total Fuel'!E102</f>
         <v>0</v>
       </c>
       <c r="F82" s="4">
-        <f>Complete!F102</f>
+        <f>'Total Fuel'!F102</f>
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <f>Complete!G102</f>
+        <f>'Total Fuel'!G102</f>
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f>Complete!H102</f>
+        <f>'Total Fuel'!H102</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f>Complete!J102</f>
+        <f>'Total Fuel'!J102</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f>Complete!K102</f>
+        <f>'Total Fuel'!K102</f>
         <v>0</v>
       </c>
       <c r="L82" s="46">
-        <f>Complete!L102</f>
+        <f>'Total Fuel'!L102</f>
         <v>0</v>
       </c>
       <c r="M82" s="46">
@@ -12267,43 +12267,43 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <f>Complete!A103</f>
+        <f>'Total Fuel'!A103</f>
         <v>0</v>
       </c>
       <c r="B83" s="5">
-        <f>Complete!B103</f>
+        <f>'Total Fuel'!B103</f>
         <v>0</v>
       </c>
       <c r="D83" s="4">
-        <f>Complete!D103</f>
+        <f>'Total Fuel'!D103</f>
         <v>0</v>
       </c>
       <c r="E83" s="4">
-        <f>Complete!E103</f>
+        <f>'Total Fuel'!E103</f>
         <v>0</v>
       </c>
       <c r="F83" s="4">
-        <f>Complete!F103</f>
+        <f>'Total Fuel'!F103</f>
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <f>Complete!G103</f>
+        <f>'Total Fuel'!G103</f>
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f>Complete!H103</f>
+        <f>'Total Fuel'!H103</f>
         <v>0</v>
       </c>
       <c r="J83">
-        <f>Complete!J103</f>
+        <f>'Total Fuel'!J103</f>
         <v>0</v>
       </c>
       <c r="K83">
-        <f>Complete!K103</f>
+        <f>'Total Fuel'!K103</f>
         <v>0</v>
       </c>
       <c r="L83" s="46">
-        <f>Complete!L103</f>
+        <f>'Total Fuel'!L103</f>
         <v>0</v>
       </c>
       <c r="M83" s="46">
@@ -12317,43 +12317,43 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <f>Complete!A104</f>
+        <f>'Total Fuel'!A104</f>
         <v>0</v>
       </c>
       <c r="B84" s="5">
-        <f>Complete!B104</f>
+        <f>'Total Fuel'!B104</f>
         <v>0</v>
       </c>
       <c r="D84" s="4">
-        <f>Complete!D104</f>
+        <f>'Total Fuel'!D104</f>
         <v>0</v>
       </c>
       <c r="E84" s="4">
-        <f>Complete!E104</f>
+        <f>'Total Fuel'!E104</f>
         <v>0</v>
       </c>
       <c r="F84" s="4">
-        <f>Complete!F104</f>
+        <f>'Total Fuel'!F104</f>
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <f>Complete!G104</f>
+        <f>'Total Fuel'!G104</f>
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f>Complete!H104</f>
+        <f>'Total Fuel'!H104</f>
         <v>0</v>
       </c>
       <c r="J84">
-        <f>Complete!J104</f>
+        <f>'Total Fuel'!J104</f>
         <v>0</v>
       </c>
       <c r="K84">
-        <f>Complete!K104</f>
+        <f>'Total Fuel'!K104</f>
         <v>0</v>
       </c>
       <c r="L84" s="46">
-        <f>Complete!L104</f>
+        <f>'Total Fuel'!L104</f>
         <v>0</v>
       </c>
       <c r="M84" s="46">
@@ -12367,43 +12367,43 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <f>Complete!A105</f>
+        <f>'Total Fuel'!A105</f>
         <v>0</v>
       </c>
       <c r="B85" s="5">
-        <f>Complete!B105</f>
+        <f>'Total Fuel'!B105</f>
         <v>0</v>
       </c>
       <c r="D85" s="4">
-        <f>Complete!D105</f>
+        <f>'Total Fuel'!D105</f>
         <v>0</v>
       </c>
       <c r="E85" s="4">
-        <f>Complete!E105</f>
+        <f>'Total Fuel'!E105</f>
         <v>0</v>
       </c>
       <c r="F85" s="4">
-        <f>Complete!F105</f>
+        <f>'Total Fuel'!F105</f>
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <f>Complete!G105</f>
+        <f>'Total Fuel'!G105</f>
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <f>Complete!H105</f>
+        <f>'Total Fuel'!H105</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f>Complete!J105</f>
+        <f>'Total Fuel'!J105</f>
         <v>0</v>
       </c>
       <c r="K85">
-        <f>Complete!K105</f>
+        <f>'Total Fuel'!K105</f>
         <v>0</v>
       </c>
       <c r="L85" s="46">
-        <f>Complete!L105</f>
+        <f>'Total Fuel'!L105</f>
         <v>0</v>
       </c>
       <c r="M85" s="46">
@@ -12417,43 +12417,43 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <f>Complete!A106</f>
+        <f>'Total Fuel'!A106</f>
         <v>0</v>
       </c>
       <c r="B86" s="5">
-        <f>Complete!B106</f>
+        <f>'Total Fuel'!B106</f>
         <v>0</v>
       </c>
       <c r="D86" s="4">
-        <f>Complete!D106</f>
+        <f>'Total Fuel'!D106</f>
         <v>0</v>
       </c>
       <c r="E86" s="4">
-        <f>Complete!E106</f>
+        <f>'Total Fuel'!E106</f>
         <v>0</v>
       </c>
       <c r="F86" s="4">
-        <f>Complete!F106</f>
+        <f>'Total Fuel'!F106</f>
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <f>Complete!G106</f>
+        <f>'Total Fuel'!G106</f>
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <f>Complete!H106</f>
+        <f>'Total Fuel'!H106</f>
         <v>0</v>
       </c>
       <c r="J86">
-        <f>Complete!J106</f>
+        <f>'Total Fuel'!J106</f>
         <v>0</v>
       </c>
       <c r="K86">
-        <f>Complete!K106</f>
+        <f>'Total Fuel'!K106</f>
         <v>0</v>
       </c>
       <c r="L86" s="46">
-        <f>Complete!L106</f>
+        <f>'Total Fuel'!L106</f>
         <v>0</v>
       </c>
       <c r="M86" s="46">
@@ -12467,43 +12467,43 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <f>Complete!A107</f>
+        <f>'Total Fuel'!A107</f>
         <v>0</v>
       </c>
       <c r="B87" s="5">
-        <f>Complete!B107</f>
+        <f>'Total Fuel'!B107</f>
         <v>0</v>
       </c>
       <c r="D87" s="4">
-        <f>Complete!D107</f>
+        <f>'Total Fuel'!D107</f>
         <v>0</v>
       </c>
       <c r="E87" s="4">
-        <f>Complete!E107</f>
+        <f>'Total Fuel'!E107</f>
         <v>0</v>
       </c>
       <c r="F87" s="4">
-        <f>Complete!F107</f>
+        <f>'Total Fuel'!F107</f>
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <f>Complete!G107</f>
+        <f>'Total Fuel'!G107</f>
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <f>Complete!H107</f>
+        <f>'Total Fuel'!H107</f>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>Complete!J107</f>
+        <f>'Total Fuel'!J107</f>
         <v>0</v>
       </c>
       <c r="K87">
-        <f>Complete!K107</f>
+        <f>'Total Fuel'!K107</f>
         <v>0</v>
       </c>
       <c r="L87" s="46">
-        <f>Complete!L107</f>
+        <f>'Total Fuel'!L107</f>
         <v>0</v>
       </c>
       <c r="M87" s="46">
@@ -12517,43 +12517,43 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <f>Complete!A108</f>
+        <f>'Total Fuel'!A108</f>
         <v>0</v>
       </c>
       <c r="B88" s="5">
-        <f>Complete!B108</f>
+        <f>'Total Fuel'!B108</f>
         <v>0</v>
       </c>
       <c r="D88" s="4">
-        <f>Complete!D108</f>
+        <f>'Total Fuel'!D108</f>
         <v>0</v>
       </c>
       <c r="E88" s="4">
-        <f>Complete!E108</f>
+        <f>'Total Fuel'!E108</f>
         <v>0</v>
       </c>
       <c r="F88" s="4">
-        <f>Complete!F108</f>
+        <f>'Total Fuel'!F108</f>
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <f>Complete!G108</f>
+        <f>'Total Fuel'!G108</f>
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <f>Complete!H108</f>
+        <f>'Total Fuel'!H108</f>
         <v>0</v>
       </c>
       <c r="J88">
-        <f>Complete!J108</f>
+        <f>'Total Fuel'!J108</f>
         <v>0</v>
       </c>
       <c r="K88">
-        <f>Complete!K108</f>
+        <f>'Total Fuel'!K108</f>
         <v>0</v>
       </c>
       <c r="L88" s="46">
-        <f>Complete!L108</f>
+        <f>'Total Fuel'!L108</f>
         <v>0</v>
       </c>
       <c r="M88" s="46">
@@ -12567,43 +12567,43 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <f>Complete!A109</f>
+        <f>'Total Fuel'!A109</f>
         <v>0</v>
       </c>
       <c r="B89" s="5">
-        <f>Complete!B109</f>
+        <f>'Total Fuel'!B109</f>
         <v>0</v>
       </c>
       <c r="D89" s="4">
-        <f>Complete!D109</f>
+        <f>'Total Fuel'!D109</f>
         <v>0</v>
       </c>
       <c r="E89" s="4">
-        <f>Complete!E109</f>
+        <f>'Total Fuel'!E109</f>
         <v>0</v>
       </c>
       <c r="F89" s="4">
-        <f>Complete!F109</f>
+        <f>'Total Fuel'!F109</f>
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <f>Complete!G109</f>
+        <f>'Total Fuel'!G109</f>
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f>Complete!H109</f>
+        <f>'Total Fuel'!H109</f>
         <v>0</v>
       </c>
       <c r="J89">
-        <f>Complete!J109</f>
+        <f>'Total Fuel'!J109</f>
         <v>0</v>
       </c>
       <c r="K89">
-        <f>Complete!K109</f>
+        <f>'Total Fuel'!K109</f>
         <v>0</v>
       </c>
       <c r="L89" s="46">
-        <f>Complete!L109</f>
+        <f>'Total Fuel'!L109</f>
         <v>0</v>
       </c>
       <c r="M89" s="46">
@@ -12617,43 +12617,43 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <f>Complete!A110</f>
+        <f>'Total Fuel'!A110</f>
         <v>0</v>
       </c>
       <c r="B90" s="5">
-        <f>Complete!B110</f>
+        <f>'Total Fuel'!B110</f>
         <v>0</v>
       </c>
       <c r="D90" s="4">
-        <f>Complete!D110</f>
+        <f>'Total Fuel'!D110</f>
         <v>0</v>
       </c>
       <c r="E90" s="4">
-        <f>Complete!E110</f>
+        <f>'Total Fuel'!E110</f>
         <v>0</v>
       </c>
       <c r="F90" s="4">
-        <f>Complete!F110</f>
+        <f>'Total Fuel'!F110</f>
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <f>Complete!G110</f>
+        <f>'Total Fuel'!G110</f>
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f>Complete!H110</f>
+        <f>'Total Fuel'!H110</f>
         <v>0</v>
       </c>
       <c r="J90">
-        <f>Complete!J110</f>
+        <f>'Total Fuel'!J110</f>
         <v>0</v>
       </c>
       <c r="K90">
-        <f>Complete!K110</f>
+        <f>'Total Fuel'!K110</f>
         <v>0</v>
       </c>
       <c r="L90" s="46">
-        <f>Complete!L110</f>
+        <f>'Total Fuel'!L110</f>
         <v>0</v>
       </c>
       <c r="M90" s="46">
@@ -12667,43 +12667,43 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <f>Complete!A111</f>
+        <f>'Total Fuel'!A111</f>
         <v>0</v>
       </c>
       <c r="B91" s="5">
-        <f>Complete!B111</f>
+        <f>'Total Fuel'!B111</f>
         <v>0</v>
       </c>
       <c r="D91" s="4">
-        <f>Complete!D111</f>
+        <f>'Total Fuel'!D111</f>
         <v>0</v>
       </c>
       <c r="E91" s="4">
-        <f>Complete!E111</f>
+        <f>'Total Fuel'!E111</f>
         <v>0</v>
       </c>
       <c r="F91" s="4">
-        <f>Complete!F111</f>
+        <f>'Total Fuel'!F111</f>
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <f>Complete!G111</f>
+        <f>'Total Fuel'!G111</f>
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <f>Complete!H111</f>
+        <f>'Total Fuel'!H111</f>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>Complete!J111</f>
+        <f>'Total Fuel'!J111</f>
         <v>0</v>
       </c>
       <c r="K91">
-        <f>Complete!K111</f>
+        <f>'Total Fuel'!K111</f>
         <v>0</v>
       </c>
       <c r="L91" s="46">
-        <f>Complete!L111</f>
+        <f>'Total Fuel'!L111</f>
         <v>0</v>
       </c>
       <c r="M91" s="46">
@@ -12717,43 +12717,43 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <f>Complete!A112</f>
+        <f>'Total Fuel'!A112</f>
         <v>0</v>
       </c>
       <c r="B92" s="5">
-        <f>Complete!B112</f>
+        <f>'Total Fuel'!B112</f>
         <v>0</v>
       </c>
       <c r="D92" s="4">
-        <f>Complete!D112</f>
+        <f>'Total Fuel'!D112</f>
         <v>0</v>
       </c>
       <c r="E92" s="4">
-        <f>Complete!E112</f>
+        <f>'Total Fuel'!E112</f>
         <v>0</v>
       </c>
       <c r="F92" s="4">
-        <f>Complete!F112</f>
+        <f>'Total Fuel'!F112</f>
         <v>0</v>
       </c>
       <c r="G92" s="3">
-        <f>Complete!G112</f>
+        <f>'Total Fuel'!G112</f>
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <f>Complete!H112</f>
+        <f>'Total Fuel'!H112</f>
         <v>0</v>
       </c>
       <c r="J92">
-        <f>Complete!J112</f>
+        <f>'Total Fuel'!J112</f>
         <v>0</v>
       </c>
       <c r="K92">
-        <f>Complete!K112</f>
+        <f>'Total Fuel'!K112</f>
         <v>0</v>
       </c>
       <c r="L92" s="46">
-        <f>Complete!L112</f>
+        <f>'Total Fuel'!L112</f>
         <v>0</v>
       </c>
       <c r="M92" s="46">
@@ -12767,43 +12767,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <f>Complete!A113</f>
+        <f>'Total Fuel'!A113</f>
         <v>0</v>
       </c>
       <c r="B93" s="5">
-        <f>Complete!B113</f>
+        <f>'Total Fuel'!B113</f>
         <v>0</v>
       </c>
       <c r="D93" s="4">
-        <f>Complete!D113</f>
+        <f>'Total Fuel'!D113</f>
         <v>0</v>
       </c>
       <c r="E93" s="4">
-        <f>Complete!E113</f>
+        <f>'Total Fuel'!E113</f>
         <v>0</v>
       </c>
       <c r="F93" s="4">
-        <f>Complete!F113</f>
+        <f>'Total Fuel'!F113</f>
         <v>0</v>
       </c>
       <c r="G93" s="3">
-        <f>Complete!G113</f>
+        <f>'Total Fuel'!G113</f>
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <f>Complete!H113</f>
+        <f>'Total Fuel'!H113</f>
         <v>0</v>
       </c>
       <c r="J93">
-        <f>Complete!J113</f>
+        <f>'Total Fuel'!J113</f>
         <v>0</v>
       </c>
       <c r="K93">
-        <f>Complete!K113</f>
+        <f>'Total Fuel'!K113</f>
         <v>0</v>
       </c>
       <c r="L93" s="46">
-        <f>Complete!L113</f>
+        <f>'Total Fuel'!L113</f>
         <v>0</v>
       </c>
       <c r="M93" s="46">
@@ -12817,43 +12817,43 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <f>Complete!A114</f>
+        <f>'Total Fuel'!A114</f>
         <v>0</v>
       </c>
       <c r="B94" s="5">
-        <f>Complete!B114</f>
+        <f>'Total Fuel'!B114</f>
         <v>0</v>
       </c>
       <c r="D94" s="4">
-        <f>Complete!D114</f>
+        <f>'Total Fuel'!D114</f>
         <v>0</v>
       </c>
       <c r="E94" s="4">
-        <f>Complete!E114</f>
+        <f>'Total Fuel'!E114</f>
         <v>0</v>
       </c>
       <c r="F94" s="4">
-        <f>Complete!F114</f>
+        <f>'Total Fuel'!F114</f>
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <f>Complete!G114</f>
+        <f>'Total Fuel'!G114</f>
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f>Complete!H114</f>
+        <f>'Total Fuel'!H114</f>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>Complete!J114</f>
+        <f>'Total Fuel'!J114</f>
         <v>0</v>
       </c>
       <c r="K94">
-        <f>Complete!K114</f>
+        <f>'Total Fuel'!K114</f>
         <v>0</v>
       </c>
       <c r="L94" s="46">
-        <f>Complete!L114</f>
+        <f>'Total Fuel'!L114</f>
         <v>0</v>
       </c>
       <c r="M94" s="46">
@@ -12867,43 +12867,43 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <f>Complete!A115</f>
+        <f>'Total Fuel'!A115</f>
         <v>0</v>
       </c>
       <c r="B95" s="5">
-        <f>Complete!B115</f>
+        <f>'Total Fuel'!B115</f>
         <v>0</v>
       </c>
       <c r="D95" s="4">
-        <f>Complete!D115</f>
+        <f>'Total Fuel'!D115</f>
         <v>0</v>
       </c>
       <c r="E95" s="4">
-        <f>Complete!E115</f>
+        <f>'Total Fuel'!E115</f>
         <v>0</v>
       </c>
       <c r="F95" s="4">
-        <f>Complete!F115</f>
+        <f>'Total Fuel'!F115</f>
         <v>0</v>
       </c>
       <c r="G95" s="3">
-        <f>Complete!G115</f>
+        <f>'Total Fuel'!G115</f>
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f>Complete!H115</f>
+        <f>'Total Fuel'!H115</f>
         <v>0</v>
       </c>
       <c r="J95">
-        <f>Complete!J115</f>
+        <f>'Total Fuel'!J115</f>
         <v>0</v>
       </c>
       <c r="K95">
-        <f>Complete!K115</f>
+        <f>'Total Fuel'!K115</f>
         <v>0</v>
       </c>
       <c r="L95" s="46">
-        <f>Complete!L115</f>
+        <f>'Total Fuel'!L115</f>
         <v>0</v>
       </c>
       <c r="M95" s="46">
@@ -12917,43 +12917,43 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <f>Complete!A116</f>
+        <f>'Total Fuel'!A116</f>
         <v>0</v>
       </c>
       <c r="B96" s="5">
-        <f>Complete!B116</f>
+        <f>'Total Fuel'!B116</f>
         <v>0</v>
       </c>
       <c r="D96" s="4">
-        <f>Complete!D116</f>
+        <f>'Total Fuel'!D116</f>
         <v>0</v>
       </c>
       <c r="E96" s="4">
-        <f>Complete!E116</f>
+        <f>'Total Fuel'!E116</f>
         <v>0</v>
       </c>
       <c r="F96" s="4">
-        <f>Complete!F116</f>
+        <f>'Total Fuel'!F116</f>
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <f>Complete!G116</f>
+        <f>'Total Fuel'!G116</f>
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f>Complete!H116</f>
+        <f>'Total Fuel'!H116</f>
         <v>0</v>
       </c>
       <c r="J96">
-        <f>Complete!J116</f>
+        <f>'Total Fuel'!J116</f>
         <v>0</v>
       </c>
       <c r="K96">
-        <f>Complete!K116</f>
+        <f>'Total Fuel'!K116</f>
         <v>0</v>
       </c>
       <c r="L96" s="46">
-        <f>Complete!L116</f>
+        <f>'Total Fuel'!L116</f>
         <v>0</v>
       </c>
       <c r="M96" s="46">
@@ -12967,43 +12967,43 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <f>Complete!A117</f>
+        <f>'Total Fuel'!A117</f>
         <v>0</v>
       </c>
       <c r="B97" s="5">
-        <f>Complete!B117</f>
+        <f>'Total Fuel'!B117</f>
         <v>0</v>
       </c>
       <c r="D97" s="4">
-        <f>Complete!D117</f>
+        <f>'Total Fuel'!D117</f>
         <v>0</v>
       </c>
       <c r="E97" s="4">
-        <f>Complete!E117</f>
+        <f>'Total Fuel'!E117</f>
         <v>0</v>
       </c>
       <c r="F97" s="4">
-        <f>Complete!F117</f>
+        <f>'Total Fuel'!F117</f>
         <v>0</v>
       </c>
       <c r="G97" s="3">
-        <f>Complete!G117</f>
+        <f>'Total Fuel'!G117</f>
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f>Complete!H117</f>
+        <f>'Total Fuel'!H117</f>
         <v>0</v>
       </c>
       <c r="J97">
-        <f>Complete!J117</f>
+        <f>'Total Fuel'!J117</f>
         <v>0</v>
       </c>
       <c r="K97">
-        <f>Complete!K117</f>
+        <f>'Total Fuel'!K117</f>
         <v>0</v>
       </c>
       <c r="L97" s="46">
-        <f>Complete!L117</f>
+        <f>'Total Fuel'!L117</f>
         <v>0</v>
       </c>
       <c r="M97" s="46">
@@ -13017,43 +13017,43 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <f>Complete!A118</f>
+        <f>'Total Fuel'!A118</f>
         <v>0</v>
       </c>
       <c r="B98" s="5">
-        <f>Complete!B118</f>
+        <f>'Total Fuel'!B118</f>
         <v>0</v>
       </c>
       <c r="D98" s="4">
-        <f>Complete!D118</f>
+        <f>'Total Fuel'!D118</f>
         <v>0</v>
       </c>
       <c r="E98" s="4">
-        <f>Complete!E118</f>
+        <f>'Total Fuel'!E118</f>
         <v>0</v>
       </c>
       <c r="F98" s="4">
-        <f>Complete!F118</f>
+        <f>'Total Fuel'!F118</f>
         <v>0</v>
       </c>
       <c r="G98" s="3">
-        <f>Complete!G118</f>
+        <f>'Total Fuel'!G118</f>
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f>Complete!H118</f>
+        <f>'Total Fuel'!H118</f>
         <v>0</v>
       </c>
       <c r="J98">
-        <f>Complete!J118</f>
+        <f>'Total Fuel'!J118</f>
         <v>0</v>
       </c>
       <c r="K98">
-        <f>Complete!K118</f>
+        <f>'Total Fuel'!K118</f>
         <v>0</v>
       </c>
       <c r="L98" s="46">
-        <f>Complete!L118</f>
+        <f>'Total Fuel'!L118</f>
         <v>0</v>
       </c>
       <c r="M98" s="46">
@@ -13067,43 +13067,43 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <f>Complete!A119</f>
+        <f>'Total Fuel'!A119</f>
         <v>0</v>
       </c>
       <c r="B99" s="5">
-        <f>Complete!B119</f>
+        <f>'Total Fuel'!B119</f>
         <v>0</v>
       </c>
       <c r="D99" s="4">
-        <f>Complete!D119</f>
+        <f>'Total Fuel'!D119</f>
         <v>0</v>
       </c>
       <c r="E99" s="4">
-        <f>Complete!E119</f>
+        <f>'Total Fuel'!E119</f>
         <v>0</v>
       </c>
       <c r="F99" s="4">
-        <f>Complete!F119</f>
+        <f>'Total Fuel'!F119</f>
         <v>0</v>
       </c>
       <c r="G99" s="3">
-        <f>Complete!G119</f>
+        <f>'Total Fuel'!G119</f>
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f>Complete!H119</f>
+        <f>'Total Fuel'!H119</f>
         <v>0</v>
       </c>
       <c r="J99">
-        <f>Complete!J119</f>
+        <f>'Total Fuel'!J119</f>
         <v>0</v>
       </c>
       <c r="K99">
-        <f>Complete!K119</f>
+        <f>'Total Fuel'!K119</f>
         <v>0</v>
       </c>
       <c r="L99" s="46">
-        <f>Complete!L119</f>
+        <f>'Total Fuel'!L119</f>
         <v>0</v>
       </c>
       <c r="M99" s="46">
@@ -13117,43 +13117,43 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <f>Complete!A120</f>
+        <f>'Total Fuel'!A120</f>
         <v>0</v>
       </c>
       <c r="B100" s="5">
-        <f>Complete!B120</f>
+        <f>'Total Fuel'!B120</f>
         <v>0</v>
       </c>
       <c r="D100" s="4">
-        <f>Complete!D120</f>
+        <f>'Total Fuel'!D120</f>
         <v>0</v>
       </c>
       <c r="E100" s="4">
-        <f>Complete!E120</f>
+        <f>'Total Fuel'!E120</f>
         <v>0</v>
       </c>
       <c r="F100" s="4">
-        <f>Complete!F120</f>
+        <f>'Total Fuel'!F120</f>
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <f>Complete!G120</f>
+        <f>'Total Fuel'!G120</f>
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f>Complete!H120</f>
+        <f>'Total Fuel'!H120</f>
         <v>0</v>
       </c>
       <c r="J100">
-        <f>Complete!J120</f>
+        <f>'Total Fuel'!J120</f>
         <v>0</v>
       </c>
       <c r="K100">
-        <f>Complete!K120</f>
+        <f>'Total Fuel'!K120</f>
         <v>0</v>
       </c>
       <c r="L100" s="46">
-        <f>Complete!L120</f>
+        <f>'Total Fuel'!L120</f>
         <v>0</v>
       </c>
       <c r="M100" s="46">
@@ -13167,43 +13167,43 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <f>Complete!A121</f>
+        <f>'Total Fuel'!A121</f>
         <v>0</v>
       </c>
       <c r="B101" s="5">
-        <f>Complete!B121</f>
+        <f>'Total Fuel'!B121</f>
         <v>0</v>
       </c>
       <c r="D101" s="4">
-        <f>Complete!D121</f>
+        <f>'Total Fuel'!D121</f>
         <v>0</v>
       </c>
       <c r="E101" s="4">
-        <f>Complete!E121</f>
+        <f>'Total Fuel'!E121</f>
         <v>0</v>
       </c>
       <c r="F101" s="4">
-        <f>Complete!F121</f>
+        <f>'Total Fuel'!F121</f>
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <f>Complete!G121</f>
+        <f>'Total Fuel'!G121</f>
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f>Complete!H121</f>
+        <f>'Total Fuel'!H121</f>
         <v>0</v>
       </c>
       <c r="J101">
-        <f>Complete!J121</f>
+        <f>'Total Fuel'!J121</f>
         <v>0</v>
       </c>
       <c r="K101">
-        <f>Complete!K121</f>
+        <f>'Total Fuel'!K121</f>
         <v>0</v>
       </c>
       <c r="L101" s="46">
-        <f>Complete!L121</f>
+        <f>'Total Fuel'!L121</f>
         <v>0</v>
       </c>
       <c r="M101" s="46">
@@ -13217,43 +13217,43 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <f>Complete!A122</f>
+        <f>'Total Fuel'!A122</f>
         <v>0</v>
       </c>
       <c r="B102" s="5">
-        <f>Complete!B122</f>
+        <f>'Total Fuel'!B122</f>
         <v>0</v>
       </c>
       <c r="D102" s="4">
-        <f>Complete!D122</f>
+        <f>'Total Fuel'!D122</f>
         <v>0</v>
       </c>
       <c r="E102" s="4">
-        <f>Complete!E122</f>
+        <f>'Total Fuel'!E122</f>
         <v>0</v>
       </c>
       <c r="F102" s="4">
-        <f>Complete!F122</f>
+        <f>'Total Fuel'!F122</f>
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <f>Complete!G122</f>
+        <f>'Total Fuel'!G122</f>
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f>Complete!H122</f>
+        <f>'Total Fuel'!H122</f>
         <v>0</v>
       </c>
       <c r="J102">
-        <f>Complete!J122</f>
+        <f>'Total Fuel'!J122</f>
         <v>0</v>
       </c>
       <c r="K102">
-        <f>Complete!K122</f>
+        <f>'Total Fuel'!K122</f>
         <v>0</v>
       </c>
       <c r="L102" s="46">
-        <f>Complete!L122</f>
+        <f>'Total Fuel'!L122</f>
         <v>0</v>
       </c>
       <c r="M102" s="46">
@@ -13267,43 +13267,43 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <f>Complete!A123</f>
+        <f>'Total Fuel'!A123</f>
         <v>0</v>
       </c>
       <c r="B103" s="5">
-        <f>Complete!B123</f>
+        <f>'Total Fuel'!B123</f>
         <v>0</v>
       </c>
       <c r="D103" s="4">
-        <f>Complete!D123</f>
+        <f>'Total Fuel'!D123</f>
         <v>0</v>
       </c>
       <c r="E103" s="4">
-        <f>Complete!E123</f>
+        <f>'Total Fuel'!E123</f>
         <v>0</v>
       </c>
       <c r="F103" s="4">
-        <f>Complete!F123</f>
+        <f>'Total Fuel'!F123</f>
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <f>Complete!G123</f>
+        <f>'Total Fuel'!G123</f>
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f>Complete!H123</f>
+        <f>'Total Fuel'!H123</f>
         <v>0</v>
       </c>
       <c r="J103">
-        <f>Complete!J123</f>
+        <f>'Total Fuel'!J123</f>
         <v>0</v>
       </c>
       <c r="K103">
-        <f>Complete!K123</f>
+        <f>'Total Fuel'!K123</f>
         <v>0</v>
       </c>
       <c r="L103" s="46">
-        <f>Complete!L123</f>
+        <f>'Total Fuel'!L123</f>
         <v>0</v>
       </c>
       <c r="M103" s="46">
@@ -13317,43 +13317,43 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <f>Complete!A124</f>
+        <f>'Total Fuel'!A124</f>
         <v>0</v>
       </c>
       <c r="B104" s="5">
-        <f>Complete!B124</f>
+        <f>'Total Fuel'!B124</f>
         <v>0</v>
       </c>
       <c r="D104" s="4">
-        <f>Complete!D124</f>
+        <f>'Total Fuel'!D124</f>
         <v>0</v>
       </c>
       <c r="E104" s="4">
-        <f>Complete!E124</f>
+        <f>'Total Fuel'!E124</f>
         <v>0</v>
       </c>
       <c r="F104" s="4">
-        <f>Complete!F124</f>
+        <f>'Total Fuel'!F124</f>
         <v>0</v>
       </c>
       <c r="G104" s="3">
-        <f>Complete!G124</f>
+        <f>'Total Fuel'!G124</f>
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f>Complete!H124</f>
+        <f>'Total Fuel'!H124</f>
         <v>0</v>
       </c>
       <c r="J104">
-        <f>Complete!J124</f>
+        <f>'Total Fuel'!J124</f>
         <v>0</v>
       </c>
       <c r="K104">
-        <f>Complete!K124</f>
+        <f>'Total Fuel'!K124</f>
         <v>0</v>
       </c>
       <c r="L104" s="46">
-        <f>Complete!L124</f>
+        <f>'Total Fuel'!L124</f>
         <v>0</v>
       </c>
       <c r="M104" s="46">
@@ -13367,43 +13367,43 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <f>Complete!A125</f>
+        <f>'Total Fuel'!A125</f>
         <v>0</v>
       </c>
       <c r="B105" s="5">
-        <f>Complete!B125</f>
+        <f>'Total Fuel'!B125</f>
         <v>0</v>
       </c>
       <c r="D105" s="4">
-        <f>Complete!D125</f>
+        <f>'Total Fuel'!D125</f>
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <f>Complete!E125</f>
+        <f>'Total Fuel'!E125</f>
         <v>0</v>
       </c>
       <c r="F105" s="4">
-        <f>Complete!F125</f>
+        <f>'Total Fuel'!F125</f>
         <v>0</v>
       </c>
       <c r="G105" s="3">
-        <f>Complete!G125</f>
+        <f>'Total Fuel'!G125</f>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f>Complete!H125</f>
+        <f>'Total Fuel'!H125</f>
         <v>0</v>
       </c>
       <c r="J105">
-        <f>Complete!J125</f>
+        <f>'Total Fuel'!J125</f>
         <v>0</v>
       </c>
       <c r="K105">
-        <f>Complete!K125</f>
+        <f>'Total Fuel'!K125</f>
         <v>0</v>
       </c>
       <c r="L105" s="46">
-        <f>Complete!L125</f>
+        <f>'Total Fuel'!L125</f>
         <v>0</v>
       </c>
       <c r="M105" s="46">
@@ -13417,43 +13417,43 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <f>Complete!A126</f>
+        <f>'Total Fuel'!A126</f>
         <v>0</v>
       </c>
       <c r="B106" s="5">
-        <f>Complete!B126</f>
+        <f>'Total Fuel'!B126</f>
         <v>0</v>
       </c>
       <c r="D106" s="4">
-        <f>Complete!D126</f>
+        <f>'Total Fuel'!D126</f>
         <v>0</v>
       </c>
       <c r="E106" s="4">
-        <f>Complete!E126</f>
+        <f>'Total Fuel'!E126</f>
         <v>0</v>
       </c>
       <c r="F106" s="4">
-        <f>Complete!F126</f>
+        <f>'Total Fuel'!F126</f>
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <f>Complete!G126</f>
+        <f>'Total Fuel'!G126</f>
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f>Complete!H126</f>
+        <f>'Total Fuel'!H126</f>
         <v>0</v>
       </c>
       <c r="J106">
-        <f>Complete!J126</f>
+        <f>'Total Fuel'!J126</f>
         <v>0</v>
       </c>
       <c r="K106">
-        <f>Complete!K126</f>
+        <f>'Total Fuel'!K126</f>
         <v>0</v>
       </c>
       <c r="L106" s="46">
-        <f>Complete!L126</f>
+        <f>'Total Fuel'!L126</f>
         <v>0</v>
       </c>
       <c r="M106" s="46">
@@ -13467,43 +13467,43 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <f>Complete!A127</f>
+        <f>'Total Fuel'!A127</f>
         <v>0</v>
       </c>
       <c r="B107" s="5">
-        <f>Complete!B127</f>
+        <f>'Total Fuel'!B127</f>
         <v>0</v>
       </c>
       <c r="D107" s="4">
-        <f>Complete!D127</f>
+        <f>'Total Fuel'!D127</f>
         <v>0</v>
       </c>
       <c r="E107" s="4">
-        <f>Complete!E127</f>
+        <f>'Total Fuel'!E127</f>
         <v>0</v>
       </c>
       <c r="F107" s="4">
-        <f>Complete!F127</f>
+        <f>'Total Fuel'!F127</f>
         <v>0</v>
       </c>
       <c r="G107" s="3">
-        <f>Complete!G127</f>
+        <f>'Total Fuel'!G127</f>
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f>Complete!H127</f>
+        <f>'Total Fuel'!H127</f>
         <v>0</v>
       </c>
       <c r="J107">
-        <f>Complete!J127</f>
+        <f>'Total Fuel'!J127</f>
         <v>0</v>
       </c>
       <c r="K107">
-        <f>Complete!K127</f>
+        <f>'Total Fuel'!K127</f>
         <v>0</v>
       </c>
       <c r="L107" s="46">
-        <f>Complete!L127</f>
+        <f>'Total Fuel'!L127</f>
         <v>0</v>
       </c>
       <c r="M107" s="46">
@@ -13517,43 +13517,43 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <f>Complete!A128</f>
+        <f>'Total Fuel'!A128</f>
         <v>0</v>
       </c>
       <c r="B108" s="5">
-        <f>Complete!B128</f>
+        <f>'Total Fuel'!B128</f>
         <v>0</v>
       </c>
       <c r="D108" s="4">
-        <f>Complete!D128</f>
+        <f>'Total Fuel'!D128</f>
         <v>0</v>
       </c>
       <c r="E108" s="4">
-        <f>Complete!E128</f>
+        <f>'Total Fuel'!E128</f>
         <v>0</v>
       </c>
       <c r="F108" s="4">
-        <f>Complete!F128</f>
+        <f>'Total Fuel'!F128</f>
         <v>0</v>
       </c>
       <c r="G108" s="3">
-        <f>Complete!G128</f>
+        <f>'Total Fuel'!G128</f>
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f>Complete!H128</f>
+        <f>'Total Fuel'!H128</f>
         <v>0</v>
       </c>
       <c r="J108">
-        <f>Complete!J128</f>
+        <f>'Total Fuel'!J128</f>
         <v>0</v>
       </c>
       <c r="K108">
-        <f>Complete!K128</f>
+        <f>'Total Fuel'!K128</f>
         <v>0</v>
       </c>
       <c r="L108" s="46">
-        <f>Complete!L128</f>
+        <f>'Total Fuel'!L128</f>
         <v>0</v>
       </c>
       <c r="M108" s="46">
@@ -13567,43 +13567,43 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <f>Complete!A129</f>
+        <f>'Total Fuel'!A129</f>
         <v>0</v>
       </c>
       <c r="B109" s="5">
-        <f>Complete!B129</f>
+        <f>'Total Fuel'!B129</f>
         <v>0</v>
       </c>
       <c r="D109" s="4">
-        <f>Complete!D129</f>
+        <f>'Total Fuel'!D129</f>
         <v>0</v>
       </c>
       <c r="E109" s="4">
-        <f>Complete!E129</f>
+        <f>'Total Fuel'!E129</f>
         <v>0</v>
       </c>
       <c r="F109" s="4">
-        <f>Complete!F129</f>
+        <f>'Total Fuel'!F129</f>
         <v>0</v>
       </c>
       <c r="G109" s="3">
-        <f>Complete!G129</f>
+        <f>'Total Fuel'!G129</f>
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f>Complete!H129</f>
+        <f>'Total Fuel'!H129</f>
         <v>0</v>
       </c>
       <c r="J109">
-        <f>Complete!J129</f>
+        <f>'Total Fuel'!J129</f>
         <v>0</v>
       </c>
       <c r="K109">
-        <f>Complete!K129</f>
+        <f>'Total Fuel'!K129</f>
         <v>0</v>
       </c>
       <c r="L109" s="46">
-        <f>Complete!L129</f>
+        <f>'Total Fuel'!L129</f>
         <v>0</v>
       </c>
       <c r="M109" s="46">
@@ -13617,43 +13617,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <f>Complete!A130</f>
+        <f>'Total Fuel'!A130</f>
         <v>0</v>
       </c>
       <c r="B110" s="5">
-        <f>Complete!B130</f>
+        <f>'Total Fuel'!B130</f>
         <v>0</v>
       </c>
       <c r="D110" s="4">
-        <f>Complete!D130</f>
+        <f>'Total Fuel'!D130</f>
         <v>0</v>
       </c>
       <c r="E110" s="4">
-        <f>Complete!E130</f>
+        <f>'Total Fuel'!E130</f>
         <v>0</v>
       </c>
       <c r="F110" s="4">
-        <f>Complete!F130</f>
+        <f>'Total Fuel'!F130</f>
         <v>0</v>
       </c>
       <c r="G110" s="3">
-        <f>Complete!G130</f>
+        <f>'Total Fuel'!G130</f>
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f>Complete!H130</f>
+        <f>'Total Fuel'!H130</f>
         <v>0</v>
       </c>
       <c r="J110">
-        <f>Complete!J130</f>
+        <f>'Total Fuel'!J130</f>
         <v>0</v>
       </c>
       <c r="K110">
-        <f>Complete!K130</f>
+        <f>'Total Fuel'!K130</f>
         <v>0</v>
       </c>
       <c r="L110" s="46">
-        <f>Complete!L130</f>
+        <f>'Total Fuel'!L130</f>
         <v>0</v>
       </c>
       <c r="M110" s="46">
@@ -13667,43 +13667,43 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <f>Complete!A131</f>
+        <f>'Total Fuel'!A131</f>
         <v>0</v>
       </c>
       <c r="B111" s="5">
-        <f>Complete!B131</f>
+        <f>'Total Fuel'!B131</f>
         <v>0</v>
       </c>
       <c r="D111" s="4">
-        <f>Complete!D131</f>
+        <f>'Total Fuel'!D131</f>
         <v>0</v>
       </c>
       <c r="E111" s="4">
-        <f>Complete!E131</f>
+        <f>'Total Fuel'!E131</f>
         <v>0</v>
       </c>
       <c r="F111" s="4">
-        <f>Complete!F131</f>
+        <f>'Total Fuel'!F131</f>
         <v>0</v>
       </c>
       <c r="G111" s="3">
-        <f>Complete!G131</f>
+        <f>'Total Fuel'!G131</f>
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f>Complete!H131</f>
+        <f>'Total Fuel'!H131</f>
         <v>0</v>
       </c>
       <c r="J111">
-        <f>Complete!J131</f>
+        <f>'Total Fuel'!J131</f>
         <v>0</v>
       </c>
       <c r="K111">
-        <f>Complete!K131</f>
+        <f>'Total Fuel'!K131</f>
         <v>0</v>
       </c>
       <c r="L111" s="46">
-        <f>Complete!L131</f>
+        <f>'Total Fuel'!L131</f>
         <v>0</v>
       </c>
       <c r="M111" s="46">
@@ -13717,43 +13717,43 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <f>Complete!A132</f>
+        <f>'Total Fuel'!A132</f>
         <v>0</v>
       </c>
       <c r="B112" s="5">
-        <f>Complete!B132</f>
+        <f>'Total Fuel'!B132</f>
         <v>0</v>
       </c>
       <c r="D112" s="4">
-        <f>Complete!D132</f>
+        <f>'Total Fuel'!D132</f>
         <v>0</v>
       </c>
       <c r="E112" s="4">
-        <f>Complete!E132</f>
+        <f>'Total Fuel'!E132</f>
         <v>0</v>
       </c>
       <c r="F112" s="4">
-        <f>Complete!F132</f>
+        <f>'Total Fuel'!F132</f>
         <v>0</v>
       </c>
       <c r="G112" s="3">
-        <f>Complete!G132</f>
+        <f>'Total Fuel'!G132</f>
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f>Complete!H132</f>
+        <f>'Total Fuel'!H132</f>
         <v>0</v>
       </c>
       <c r="J112">
-        <f>Complete!J132</f>
+        <f>'Total Fuel'!J132</f>
         <v>0</v>
       </c>
       <c r="K112">
-        <f>Complete!K132</f>
+        <f>'Total Fuel'!K132</f>
         <v>0</v>
       </c>
       <c r="L112" s="46">
-        <f>Complete!L132</f>
+        <f>'Total Fuel'!L132</f>
         <v>0</v>
       </c>
       <c r="M112" s="46">
@@ -13767,43 +13767,43 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <f>Complete!A133</f>
+        <f>'Total Fuel'!A133</f>
         <v>0</v>
       </c>
       <c r="B113" s="5">
-        <f>Complete!B133</f>
+        <f>'Total Fuel'!B133</f>
         <v>0</v>
       </c>
       <c r="D113" s="4">
-        <f>Complete!D133</f>
+        <f>'Total Fuel'!D133</f>
         <v>0</v>
       </c>
       <c r="E113" s="4">
-        <f>Complete!E133</f>
+        <f>'Total Fuel'!E133</f>
         <v>0</v>
       </c>
       <c r="F113" s="4">
-        <f>Complete!F133</f>
+        <f>'Total Fuel'!F133</f>
         <v>0</v>
       </c>
       <c r="G113" s="3">
-        <f>Complete!G133</f>
+        <f>'Total Fuel'!G133</f>
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f>Complete!H133</f>
+        <f>'Total Fuel'!H133</f>
         <v>0</v>
       </c>
       <c r="J113">
-        <f>Complete!J133</f>
+        <f>'Total Fuel'!J133</f>
         <v>0</v>
       </c>
       <c r="K113">
-        <f>Complete!K133</f>
+        <f>'Total Fuel'!K133</f>
         <v>0</v>
       </c>
       <c r="L113" s="46">
-        <f>Complete!L133</f>
+        <f>'Total Fuel'!L133</f>
         <v>0</v>
       </c>
       <c r="M113" s="46">
@@ -13817,43 +13817,43 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <f>Complete!A134</f>
+        <f>'Total Fuel'!A134</f>
         <v>0</v>
       </c>
       <c r="B114" s="5">
-        <f>Complete!B134</f>
+        <f>'Total Fuel'!B134</f>
         <v>0</v>
       </c>
       <c r="D114" s="4">
-        <f>Complete!D134</f>
+        <f>'Total Fuel'!D134</f>
         <v>0</v>
       </c>
       <c r="E114" s="4">
-        <f>Complete!E134</f>
+        <f>'Total Fuel'!E134</f>
         <v>0</v>
       </c>
       <c r="F114" s="4">
-        <f>Complete!F134</f>
+        <f>'Total Fuel'!F134</f>
         <v>0</v>
       </c>
       <c r="G114" s="3">
-        <f>Complete!G134</f>
+        <f>'Total Fuel'!G134</f>
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f>Complete!H134</f>
+        <f>'Total Fuel'!H134</f>
         <v>0</v>
       </c>
       <c r="J114">
-        <f>Complete!J134</f>
+        <f>'Total Fuel'!J134</f>
         <v>0</v>
       </c>
       <c r="K114">
-        <f>Complete!K134</f>
+        <f>'Total Fuel'!K134</f>
         <v>0</v>
       </c>
       <c r="L114" s="46">
-        <f>Complete!L134</f>
+        <f>'Total Fuel'!L134</f>
         <v>0</v>
       </c>
       <c r="M114" s="46">
@@ -13867,43 +13867,43 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <f>Complete!A135</f>
+        <f>'Total Fuel'!A135</f>
         <v>0</v>
       </c>
       <c r="B115" s="5">
-        <f>Complete!B135</f>
+        <f>'Total Fuel'!B135</f>
         <v>0</v>
       </c>
       <c r="D115" s="4">
-        <f>Complete!D135</f>
+        <f>'Total Fuel'!D135</f>
         <v>0</v>
       </c>
       <c r="E115" s="4">
-        <f>Complete!E135</f>
+        <f>'Total Fuel'!E135</f>
         <v>0</v>
       </c>
       <c r="F115" s="4">
-        <f>Complete!F135</f>
+        <f>'Total Fuel'!F135</f>
         <v>0</v>
       </c>
       <c r="G115" s="3">
-        <f>Complete!G135</f>
+        <f>'Total Fuel'!G135</f>
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f>Complete!H135</f>
+        <f>'Total Fuel'!H135</f>
         <v>0</v>
       </c>
       <c r="J115">
-        <f>Complete!J135</f>
+        <f>'Total Fuel'!J135</f>
         <v>0</v>
       </c>
       <c r="K115">
-        <f>Complete!K135</f>
+        <f>'Total Fuel'!K135</f>
         <v>0</v>
       </c>
       <c r="L115" s="46">
-        <f>Complete!L135</f>
+        <f>'Total Fuel'!L135</f>
         <v>0</v>
       </c>
       <c r="M115" s="46">
@@ -13917,43 +13917,43 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <f>Complete!A136</f>
+        <f>'Total Fuel'!A136</f>
         <v>0</v>
       </c>
       <c r="B116" s="5">
-        <f>Complete!B136</f>
+        <f>'Total Fuel'!B136</f>
         <v>0</v>
       </c>
       <c r="D116" s="4">
-        <f>Complete!D136</f>
+        <f>'Total Fuel'!D136</f>
         <v>0</v>
       </c>
       <c r="E116" s="4">
-        <f>Complete!E136</f>
+        <f>'Total Fuel'!E136</f>
         <v>0</v>
       </c>
       <c r="F116" s="4">
-        <f>Complete!F136</f>
+        <f>'Total Fuel'!F136</f>
         <v>0</v>
       </c>
       <c r="G116" s="3">
-        <f>Complete!G136</f>
+        <f>'Total Fuel'!G136</f>
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f>Complete!H136</f>
+        <f>'Total Fuel'!H136</f>
         <v>0</v>
       </c>
       <c r="J116">
-        <f>Complete!J136</f>
+        <f>'Total Fuel'!J136</f>
         <v>0</v>
       </c>
       <c r="K116">
-        <f>Complete!K136</f>
+        <f>'Total Fuel'!K136</f>
         <v>0</v>
       </c>
       <c r="L116" s="46">
-        <f>Complete!L136</f>
+        <f>'Total Fuel'!L136</f>
         <v>0</v>
       </c>
       <c r="M116" s="46">
@@ -13967,43 +13967,43 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <f>Complete!A137</f>
+        <f>'Total Fuel'!A137</f>
         <v>0</v>
       </c>
       <c r="B117" s="5">
-        <f>Complete!B137</f>
+        <f>'Total Fuel'!B137</f>
         <v>0</v>
       </c>
       <c r="D117" s="4">
-        <f>Complete!D137</f>
+        <f>'Total Fuel'!D137</f>
         <v>0</v>
       </c>
       <c r="E117" s="4">
-        <f>Complete!E137</f>
+        <f>'Total Fuel'!E137</f>
         <v>0</v>
       </c>
       <c r="F117" s="4">
-        <f>Complete!F137</f>
+        <f>'Total Fuel'!F137</f>
         <v>0</v>
       </c>
       <c r="G117" s="3">
-        <f>Complete!G137</f>
+        <f>'Total Fuel'!G137</f>
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f>Complete!H137</f>
+        <f>'Total Fuel'!H137</f>
         <v>0</v>
       </c>
       <c r="J117">
-        <f>Complete!J137</f>
+        <f>'Total Fuel'!J137</f>
         <v>0</v>
       </c>
       <c r="K117">
-        <f>Complete!K137</f>
+        <f>'Total Fuel'!K137</f>
         <v>0</v>
       </c>
       <c r="L117" s="46">
-        <f>Complete!L137</f>
+        <f>'Total Fuel'!L137</f>
         <v>0</v>
       </c>
       <c r="M117" s="46">
@@ -14017,43 +14017,43 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <f>Complete!A138</f>
+        <f>'Total Fuel'!A138</f>
         <v>0</v>
       </c>
       <c r="B118" s="5">
-        <f>Complete!B138</f>
+        <f>'Total Fuel'!B138</f>
         <v>0</v>
       </c>
       <c r="D118" s="4">
-        <f>Complete!D138</f>
+        <f>'Total Fuel'!D138</f>
         <v>0</v>
       </c>
       <c r="E118" s="4">
-        <f>Complete!E138</f>
+        <f>'Total Fuel'!E138</f>
         <v>0</v>
       </c>
       <c r="F118" s="4">
-        <f>Complete!F138</f>
+        <f>'Total Fuel'!F138</f>
         <v>0</v>
       </c>
       <c r="G118" s="3">
-        <f>Complete!G138</f>
+        <f>'Total Fuel'!G138</f>
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f>Complete!H138</f>
+        <f>'Total Fuel'!H138</f>
         <v>0</v>
       </c>
       <c r="J118">
-        <f>Complete!J138</f>
+        <f>'Total Fuel'!J138</f>
         <v>0</v>
       </c>
       <c r="K118">
-        <f>Complete!K138</f>
+        <f>'Total Fuel'!K138</f>
         <v>0</v>
       </c>
       <c r="L118" s="46">
-        <f>Complete!L138</f>
+        <f>'Total Fuel'!L138</f>
         <v>0</v>
       </c>
       <c r="M118" s="46">
@@ -14067,43 +14067,43 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <f>Complete!A139</f>
+        <f>'Total Fuel'!A139</f>
         <v>0</v>
       </c>
       <c r="B119" s="5">
-        <f>Complete!B139</f>
+        <f>'Total Fuel'!B139</f>
         <v>0</v>
       </c>
       <c r="D119" s="4">
-        <f>Complete!D139</f>
+        <f>'Total Fuel'!D139</f>
         <v>0</v>
       </c>
       <c r="E119" s="4">
-        <f>Complete!E139</f>
+        <f>'Total Fuel'!E139</f>
         <v>0</v>
       </c>
       <c r="F119" s="4">
-        <f>Complete!F139</f>
+        <f>'Total Fuel'!F139</f>
         <v>0</v>
       </c>
       <c r="G119" s="3">
-        <f>Complete!G139</f>
+        <f>'Total Fuel'!G139</f>
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f>Complete!H139</f>
+        <f>'Total Fuel'!H139</f>
         <v>0</v>
       </c>
       <c r="J119">
-        <f>Complete!J139</f>
+        <f>'Total Fuel'!J139</f>
         <v>0</v>
       </c>
       <c r="K119">
-        <f>Complete!K139</f>
+        <f>'Total Fuel'!K139</f>
         <v>0</v>
       </c>
       <c r="L119" s="46">
-        <f>Complete!L139</f>
+        <f>'Total Fuel'!L139</f>
         <v>0</v>
       </c>
       <c r="M119" s="46">
@@ -14117,43 +14117,43 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <f>Complete!A140</f>
+        <f>'Total Fuel'!A140</f>
         <v>0</v>
       </c>
       <c r="B120" s="5">
-        <f>Complete!B140</f>
+        <f>'Total Fuel'!B140</f>
         <v>0</v>
       </c>
       <c r="D120" s="4">
-        <f>Complete!D140</f>
+        <f>'Total Fuel'!D140</f>
         <v>0</v>
       </c>
       <c r="E120" s="4">
-        <f>Complete!E140</f>
+        <f>'Total Fuel'!E140</f>
         <v>0</v>
       </c>
       <c r="F120" s="4">
-        <f>Complete!F140</f>
+        <f>'Total Fuel'!F140</f>
         <v>0</v>
       </c>
       <c r="G120" s="3">
-        <f>Complete!G140</f>
+        <f>'Total Fuel'!G140</f>
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f>Complete!H140</f>
+        <f>'Total Fuel'!H140</f>
         <v>0</v>
       </c>
       <c r="J120">
-        <f>Complete!J140</f>
+        <f>'Total Fuel'!J140</f>
         <v>0</v>
       </c>
       <c r="K120">
-        <f>Complete!K140</f>
+        <f>'Total Fuel'!K140</f>
         <v>0</v>
       </c>
       <c r="L120" s="46">
-        <f>Complete!L140</f>
+        <f>'Total Fuel'!L140</f>
         <v>0</v>
       </c>
       <c r="M120" s="46">
@@ -14167,43 +14167,43 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <f>Complete!A141</f>
+        <f>'Total Fuel'!A141</f>
         <v>0</v>
       </c>
       <c r="B121" s="5">
-        <f>Complete!B141</f>
+        <f>'Total Fuel'!B141</f>
         <v>0</v>
       </c>
       <c r="D121" s="4">
-        <f>Complete!D141</f>
+        <f>'Total Fuel'!D141</f>
         <v>0</v>
       </c>
       <c r="E121" s="4">
-        <f>Complete!E141</f>
+        <f>'Total Fuel'!E141</f>
         <v>0</v>
       </c>
       <c r="F121" s="4">
-        <f>Complete!F141</f>
+        <f>'Total Fuel'!F141</f>
         <v>0</v>
       </c>
       <c r="G121" s="3">
-        <f>Complete!G141</f>
+        <f>'Total Fuel'!G141</f>
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f>Complete!H141</f>
+        <f>'Total Fuel'!H141</f>
         <v>0</v>
       </c>
       <c r="J121">
-        <f>Complete!J141</f>
+        <f>'Total Fuel'!J141</f>
         <v>0</v>
       </c>
       <c r="K121">
-        <f>Complete!K141</f>
+        <f>'Total Fuel'!K141</f>
         <v>0</v>
       </c>
       <c r="L121" s="46">
-        <f>Complete!L141</f>
+        <f>'Total Fuel'!L141</f>
         <v>0</v>
       </c>
       <c r="M121" s="46">
@@ -14217,43 +14217,43 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <f>Complete!A142</f>
+        <f>'Total Fuel'!A142</f>
         <v>0</v>
       </c>
       <c r="B122" s="5">
-        <f>Complete!B142</f>
+        <f>'Total Fuel'!B142</f>
         <v>0</v>
       </c>
       <c r="D122" s="4">
-        <f>Complete!D142</f>
+        <f>'Total Fuel'!D142</f>
         <v>0</v>
       </c>
       <c r="E122" s="4">
-        <f>Complete!E142</f>
+        <f>'Total Fuel'!E142</f>
         <v>0</v>
       </c>
       <c r="F122" s="4">
-        <f>Complete!F142</f>
+        <f>'Total Fuel'!F142</f>
         <v>0</v>
       </c>
       <c r="G122" s="3">
-        <f>Complete!G142</f>
+        <f>'Total Fuel'!G142</f>
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f>Complete!H142</f>
+        <f>'Total Fuel'!H142</f>
         <v>0</v>
       </c>
       <c r="J122">
-        <f>Complete!J142</f>
+        <f>'Total Fuel'!J142</f>
         <v>0</v>
       </c>
       <c r="K122">
-        <f>Complete!K142</f>
+        <f>'Total Fuel'!K142</f>
         <v>0</v>
       </c>
       <c r="L122" s="46">
-        <f>Complete!L142</f>
+        <f>'Total Fuel'!L142</f>
         <v>0</v>
       </c>
       <c r="M122" s="46">
@@ -14267,43 +14267,43 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <f>Complete!A143</f>
+        <f>'Total Fuel'!A143</f>
         <v>0</v>
       </c>
       <c r="B123" s="5">
-        <f>Complete!B143</f>
+        <f>'Total Fuel'!B143</f>
         <v>0</v>
       </c>
       <c r="D123" s="4">
-        <f>Complete!D143</f>
+        <f>'Total Fuel'!D143</f>
         <v>0</v>
       </c>
       <c r="E123" s="4">
-        <f>Complete!E143</f>
+        <f>'Total Fuel'!E143</f>
         <v>0</v>
       </c>
       <c r="F123" s="4">
-        <f>Complete!F143</f>
+        <f>'Total Fuel'!F143</f>
         <v>0</v>
       </c>
       <c r="G123" s="3">
-        <f>Complete!G143</f>
+        <f>'Total Fuel'!G143</f>
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f>Complete!H143</f>
+        <f>'Total Fuel'!H143</f>
         <v>0</v>
       </c>
       <c r="J123">
-        <f>Complete!J143</f>
+        <f>'Total Fuel'!J143</f>
         <v>0</v>
       </c>
       <c r="K123">
-        <f>Complete!K143</f>
+        <f>'Total Fuel'!K143</f>
         <v>0</v>
       </c>
       <c r="L123" s="46">
-        <f>Complete!L143</f>
+        <f>'Total Fuel'!L143</f>
         <v>0</v>
       </c>
       <c r="M123" s="46">
@@ -14317,43 +14317,43 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <f>Complete!A144</f>
+        <f>'Total Fuel'!A144</f>
         <v>0</v>
       </c>
       <c r="B124" s="5">
-        <f>Complete!B144</f>
+        <f>'Total Fuel'!B144</f>
         <v>0</v>
       </c>
       <c r="D124" s="4">
-        <f>Complete!D144</f>
+        <f>'Total Fuel'!D144</f>
         <v>0</v>
       </c>
       <c r="E124" s="4">
-        <f>Complete!E144</f>
+        <f>'Total Fuel'!E144</f>
         <v>0</v>
       </c>
       <c r="F124" s="4">
-        <f>Complete!F144</f>
+        <f>'Total Fuel'!F144</f>
         <v>0</v>
       </c>
       <c r="G124" s="3">
-        <f>Complete!G144</f>
+        <f>'Total Fuel'!G144</f>
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f>Complete!H144</f>
+        <f>'Total Fuel'!H144</f>
         <v>0</v>
       </c>
       <c r="J124">
-        <f>Complete!J144</f>
+        <f>'Total Fuel'!J144</f>
         <v>0</v>
       </c>
       <c r="K124">
-        <f>Complete!K144</f>
+        <f>'Total Fuel'!K144</f>
         <v>0</v>
       </c>
       <c r="L124" s="46">
-        <f>Complete!L144</f>
+        <f>'Total Fuel'!L144</f>
         <v>0</v>
       </c>
       <c r="M124" s="46">
@@ -14367,43 +14367,43 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125">
-        <f>Complete!A145</f>
+        <f>'Total Fuel'!A145</f>
         <v>0</v>
       </c>
       <c r="B125" s="5">
-        <f>Complete!B145</f>
+        <f>'Total Fuel'!B145</f>
         <v>0</v>
       </c>
       <c r="D125" s="4">
-        <f>Complete!D145</f>
+        <f>'Total Fuel'!D145</f>
         <v>0</v>
       </c>
       <c r="E125" s="4">
-        <f>Complete!E145</f>
+        <f>'Total Fuel'!E145</f>
         <v>0</v>
       </c>
       <c r="F125" s="4">
-        <f>Complete!F145</f>
+        <f>'Total Fuel'!F145</f>
         <v>0</v>
       </c>
       <c r="G125" s="3">
-        <f>Complete!G145</f>
+        <f>'Total Fuel'!G145</f>
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f>Complete!H145</f>
+        <f>'Total Fuel'!H145</f>
         <v>0</v>
       </c>
       <c r="J125">
-        <f>Complete!J145</f>
+        <f>'Total Fuel'!J145</f>
         <v>0</v>
       </c>
       <c r="K125">
-        <f>Complete!K145</f>
+        <f>'Total Fuel'!K145</f>
         <v>0</v>
       </c>
       <c r="L125" s="46">
-        <f>Complete!L145</f>
+        <f>'Total Fuel'!L145</f>
         <v>0</v>
       </c>
       <c r="M125" s="46">
@@ -14417,43 +14417,43 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
-        <f>Complete!A146</f>
+        <f>'Total Fuel'!A146</f>
         <v>0</v>
       </c>
       <c r="B126" s="5">
-        <f>Complete!B146</f>
+        <f>'Total Fuel'!B146</f>
         <v>0</v>
       </c>
       <c r="D126" s="4">
-        <f>Complete!D146</f>
+        <f>'Total Fuel'!D146</f>
         <v>0</v>
       </c>
       <c r="E126" s="4">
-        <f>Complete!E146</f>
+        <f>'Total Fuel'!E146</f>
         <v>0</v>
       </c>
       <c r="F126" s="4">
-        <f>Complete!F146</f>
+        <f>'Total Fuel'!F146</f>
         <v>0</v>
       </c>
       <c r="G126" s="3">
-        <f>Complete!G146</f>
+        <f>'Total Fuel'!G146</f>
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f>Complete!H146</f>
+        <f>'Total Fuel'!H146</f>
         <v>0</v>
       </c>
       <c r="J126">
-        <f>Complete!J146</f>
+        <f>'Total Fuel'!J146</f>
         <v>0</v>
       </c>
       <c r="K126">
-        <f>Complete!K146</f>
+        <f>'Total Fuel'!K146</f>
         <v>0</v>
       </c>
       <c r="L126" s="46">
-        <f>Complete!L146</f>
+        <f>'Total Fuel'!L146</f>
         <v>0</v>
       </c>
       <c r="M126" s="46">
@@ -14467,43 +14467,43 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127">
-        <f>Complete!A147</f>
+        <f>'Total Fuel'!A147</f>
         <v>0</v>
       </c>
       <c r="B127" s="5">
-        <f>Complete!B147</f>
+        <f>'Total Fuel'!B147</f>
         <v>0</v>
       </c>
       <c r="D127" s="4">
-        <f>Complete!D147</f>
+        <f>'Total Fuel'!D147</f>
         <v>0</v>
       </c>
       <c r="E127" s="4">
-        <f>Complete!E147</f>
+        <f>'Total Fuel'!E147</f>
         <v>0</v>
       </c>
       <c r="F127" s="4">
-        <f>Complete!F147</f>
+        <f>'Total Fuel'!F147</f>
         <v>0</v>
       </c>
       <c r="G127" s="3">
-        <f>Complete!G147</f>
+        <f>'Total Fuel'!G147</f>
         <v>0</v>
       </c>
       <c r="H127" s="4">
-        <f>Complete!H147</f>
+        <f>'Total Fuel'!H147</f>
         <v>0</v>
       </c>
       <c r="J127">
-        <f>Complete!J147</f>
+        <f>'Total Fuel'!J147</f>
         <v>0</v>
       </c>
       <c r="K127">
-        <f>Complete!K147</f>
+        <f>'Total Fuel'!K147</f>
         <v>0</v>
       </c>
       <c r="L127" s="46">
-        <f>Complete!L147</f>
+        <f>'Total Fuel'!L147</f>
         <v>0</v>
       </c>
       <c r="M127" s="46">
@@ -14517,43 +14517,43 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128">
-        <f>Complete!A148</f>
+        <f>'Total Fuel'!A148</f>
         <v>0</v>
       </c>
       <c r="B128" s="5">
-        <f>Complete!B148</f>
+        <f>'Total Fuel'!B148</f>
         <v>0</v>
       </c>
       <c r="D128" s="4">
-        <f>Complete!D148</f>
+        <f>'Total Fuel'!D148</f>
         <v>0</v>
       </c>
       <c r="E128" s="4">
-        <f>Complete!E148</f>
+        <f>'Total Fuel'!E148</f>
         <v>0</v>
       </c>
       <c r="F128" s="4">
-        <f>Complete!F148</f>
+        <f>'Total Fuel'!F148</f>
         <v>0</v>
       </c>
       <c r="G128" s="3">
-        <f>Complete!G148</f>
+        <f>'Total Fuel'!G148</f>
         <v>0</v>
       </c>
       <c r="H128" s="4">
-        <f>Complete!H148</f>
+        <f>'Total Fuel'!H148</f>
         <v>0</v>
       </c>
       <c r="J128">
-        <f>Complete!J148</f>
+        <f>'Total Fuel'!J148</f>
         <v>0</v>
       </c>
       <c r="K128">
-        <f>Complete!K148</f>
+        <f>'Total Fuel'!K148</f>
         <v>0</v>
       </c>
       <c r="L128" s="46">
-        <f>Complete!L148</f>
+        <f>'Total Fuel'!L148</f>
         <v>0</v>
       </c>
       <c r="M128" s="46">
@@ -14567,43 +14567,43 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129">
-        <f>Complete!A149</f>
+        <f>'Total Fuel'!A149</f>
         <v>0</v>
       </c>
       <c r="B129" s="5">
-        <f>Complete!B149</f>
+        <f>'Total Fuel'!B149</f>
         <v>0</v>
       </c>
       <c r="D129" s="4">
-        <f>Complete!D149</f>
+        <f>'Total Fuel'!D149</f>
         <v>0</v>
       </c>
       <c r="E129" s="4">
-        <f>Complete!E149</f>
+        <f>'Total Fuel'!E149</f>
         <v>0</v>
       </c>
       <c r="F129" s="4">
-        <f>Complete!F149</f>
+        <f>'Total Fuel'!F149</f>
         <v>0</v>
       </c>
       <c r="G129" s="3">
-        <f>Complete!G149</f>
+        <f>'Total Fuel'!G149</f>
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <f>Complete!H149</f>
+        <f>'Total Fuel'!H149</f>
         <v>0</v>
       </c>
       <c r="J129">
-        <f>Complete!J149</f>
+        <f>'Total Fuel'!J149</f>
         <v>0</v>
       </c>
       <c r="K129">
-        <f>Complete!K149</f>
+        <f>'Total Fuel'!K149</f>
         <v>0</v>
       </c>
       <c r="L129" s="46">
-        <f>Complete!L149</f>
+        <f>'Total Fuel'!L149</f>
         <v>0</v>
       </c>
       <c r="M129" s="46">
@@ -14617,43 +14617,43 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130">
-        <f>Complete!A150</f>
+        <f>'Total Fuel'!A150</f>
         <v>0</v>
       </c>
       <c r="B130" s="5">
-        <f>Complete!B150</f>
+        <f>'Total Fuel'!B150</f>
         <v>0</v>
       </c>
       <c r="D130" s="4">
-        <f>Complete!D150</f>
+        <f>'Total Fuel'!D150</f>
         <v>0</v>
       </c>
       <c r="E130" s="4">
-        <f>Complete!E150</f>
+        <f>'Total Fuel'!E150</f>
         <v>0</v>
       </c>
       <c r="F130" s="4">
-        <f>Complete!F150</f>
+        <f>'Total Fuel'!F150</f>
         <v>0</v>
       </c>
       <c r="G130" s="3">
-        <f>Complete!G150</f>
+        <f>'Total Fuel'!G150</f>
         <v>0</v>
       </c>
       <c r="H130" s="4">
-        <f>Complete!H150</f>
+        <f>'Total Fuel'!H150</f>
         <v>0</v>
       </c>
       <c r="J130">
-        <f>Complete!J150</f>
+        <f>'Total Fuel'!J150</f>
         <v>0</v>
       </c>
       <c r="K130">
-        <f>Complete!K150</f>
+        <f>'Total Fuel'!K150</f>
         <v>0</v>
       </c>
       <c r="L130" s="46">
-        <f>Complete!L150</f>
+        <f>'Total Fuel'!L150</f>
         <v>0</v>
       </c>
       <c r="M130" s="46">
@@ -14667,43 +14667,43 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131">
-        <f>Complete!A151</f>
+        <f>'Total Fuel'!A151</f>
         <v>0</v>
       </c>
       <c r="B131" s="5">
-        <f>Complete!B151</f>
+        <f>'Total Fuel'!B151</f>
         <v>0</v>
       </c>
       <c r="D131" s="4">
-        <f>Complete!D151</f>
+        <f>'Total Fuel'!D151</f>
         <v>0</v>
       </c>
       <c r="E131" s="4">
-        <f>Complete!E151</f>
+        <f>'Total Fuel'!E151</f>
         <v>0</v>
       </c>
       <c r="F131" s="4">
-        <f>Complete!F151</f>
+        <f>'Total Fuel'!F151</f>
         <v>0</v>
       </c>
       <c r="G131" s="3">
-        <f>Complete!G151</f>
+        <f>'Total Fuel'!G151</f>
         <v>0</v>
       </c>
       <c r="H131" s="4">
-        <f>Complete!H151</f>
+        <f>'Total Fuel'!H151</f>
         <v>0</v>
       </c>
       <c r="J131">
-        <f>Complete!J151</f>
+        <f>'Total Fuel'!J151</f>
         <v>0</v>
       </c>
       <c r="K131">
-        <f>Complete!K151</f>
+        <f>'Total Fuel'!K151</f>
         <v>0</v>
       </c>
       <c r="L131" s="46">
-        <f>Complete!L151</f>
+        <f>'Total Fuel'!L151</f>
         <v>0</v>
       </c>
       <c r="M131" s="46">
@@ -14717,43 +14717,43 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
-        <f>Complete!A152</f>
+        <f>'Total Fuel'!A152</f>
         <v>0</v>
       </c>
       <c r="B132" s="5">
-        <f>Complete!B152</f>
+        <f>'Total Fuel'!B152</f>
         <v>0</v>
       </c>
       <c r="D132" s="4">
-        <f>Complete!D152</f>
+        <f>'Total Fuel'!D152</f>
         <v>0</v>
       </c>
       <c r="E132" s="4">
-        <f>Complete!E152</f>
+        <f>'Total Fuel'!E152</f>
         <v>0</v>
       </c>
       <c r="F132" s="4">
-        <f>Complete!F152</f>
+        <f>'Total Fuel'!F152</f>
         <v>0</v>
       </c>
       <c r="G132" s="3">
-        <f>Complete!G152</f>
+        <f>'Total Fuel'!G152</f>
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f>Complete!H152</f>
+        <f>'Total Fuel'!H152</f>
         <v>0</v>
       </c>
       <c r="J132">
-        <f>Complete!J152</f>
+        <f>'Total Fuel'!J152</f>
         <v>0</v>
       </c>
       <c r="K132">
-        <f>Complete!K152</f>
+        <f>'Total Fuel'!K152</f>
         <v>0</v>
       </c>
       <c r="L132" s="46">
-        <f>Complete!L152</f>
+        <f>'Total Fuel'!L152</f>
         <v>0</v>
       </c>
       <c r="M132" s="46">
@@ -14775,8 +14775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14811,7 +14811,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="10">
-        <f>AVERAGE(Complete!G22:G26)</f>
+        <f>AVERAGE('Total Fuel'!G22:G26)</f>
         <v>15.997578084265493</v>
       </c>
       <c r="D2" s="42"/>
@@ -14825,7 +14825,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="10">
-        <f>AVERAGE(Complete!G27:G29)</f>
+        <f>AVERAGE('Total Fuel'!G27:G29)</f>
         <v>15.16738092844818</v>
       </c>
       <c r="D3" s="42"/>
@@ -14839,7 +14839,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="10">
-        <f>AVERAGE(Complete!G30:G33)</f>
+        <f>AVERAGE('Total Fuel'!G30:G33)</f>
         <v>14.597993522979237</v>
       </c>
       <c r="D4" s="42"/>
@@ -14853,7 +14853,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="10">
-        <f>AVERAGE(Complete!G34)</f>
+        <f>AVERAGE('Total Fuel'!G34)</f>
         <v>14.385729356478373</v>
       </c>
       <c r="D5" s="42"/>
@@ -14867,7 +14867,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="10">
-        <f>AVERAGE(Complete!G35:G37)</f>
+        <f>AVERAGE('Total Fuel'!G35:G37)</f>
         <v>15.340752088983129</v>
       </c>
       <c r="D6" s="42"/>
@@ -14878,11 +14878,11 @@
         <v>48</v>
       </c>
       <c r="B7" s="10">
-        <f>AVERAGE(Complete!G3:G4)</f>
+        <f>AVERAGE('Total Fuel'!G3:G4)</f>
         <v>11.459939065186166</v>
       </c>
       <c r="C7" s="10">
-        <f>AVERAGE(Complete!G38)</f>
+        <f>AVERAGE('Total Fuel'!G38)</f>
         <v>15.615714757345659</v>
       </c>
       <c r="D7" s="42"/>
@@ -14893,11 +14893,11 @@
         <v>49</v>
       </c>
       <c r="B8" s="10">
-        <f>AVERAGE(Complete!G5:G6)</f>
+        <f>AVERAGE('Total Fuel'!G5:G6)</f>
         <v>11.050573374290463</v>
       </c>
       <c r="C8" s="10">
-        <f>AVERAGE(Complete!G39)</f>
+        <f>AVERAGE('Total Fuel'!G39)</f>
         <v>12.101366742596811</v>
       </c>
       <c r="D8" s="42"/>
@@ -14908,11 +14908,11 @@
         <v>50</v>
       </c>
       <c r="B9" s="10">
-        <f>AVERAGE(Complete!G7:G13)</f>
+        <f>AVERAGE('Total Fuel'!G7:G13)</f>
         <v>14.213513498166757</v>
       </c>
       <c r="C9" s="10">
-        <f>AVERAGE(Complete!G40)</f>
+        <f>AVERAGE('Total Fuel'!G40)</f>
         <v>12.592592592592593</v>
       </c>
       <c r="D9" s="42"/>
@@ -14923,11 +14923,11 @@
         <v>51</v>
       </c>
       <c r="B10" s="10">
-        <f>AVERAGE(Complete!G14:G15)</f>
+        <f>AVERAGE('Total Fuel'!G14:G15)</f>
         <v>12.038410656796994</v>
       </c>
       <c r="C10" s="10">
-        <f>AVERAGE(Complete!G41:G43)</f>
+        <f>AVERAGE('Total Fuel'!G41:G43)</f>
         <v>13.214382511758288</v>
       </c>
       <c r="D10" s="42"/>
@@ -14938,11 +14938,11 @@
         <v>52</v>
       </c>
       <c r="B11" s="10">
-        <f>AVERAGE(Complete!G16:G17)</f>
+        <f>AVERAGE('Total Fuel'!G16:G17)</f>
         <v>11.232389533216402</v>
       </c>
       <c r="C11" s="10">
-        <f>AVERAGE(Complete!G44)</f>
+        <f>AVERAGE('Total Fuel'!G44)</f>
         <v>12.42344706911636</v>
       </c>
       <c r="D11" s="42"/>
@@ -14954,11 +14954,11 @@
         <v>53</v>
       </c>
       <c r="B12" s="10">
-        <f>AVERAGE(Complete!G18:G19)</f>
+        <f>AVERAGE('Total Fuel'!G18:G19)</f>
         <v>12.314254121915848</v>
       </c>
       <c r="C12" s="10">
-        <f>AVERAGE(Complete!G45:G46)</f>
+        <f>AVERAGE('Total Fuel'!G45:G46)</f>
         <v>13.902384769492448</v>
       </c>
       <c r="D12" s="42"/>
@@ -14969,7 +14969,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="41">
-        <f>AVERAGE(Complete!G20:G21)</f>
+        <f>AVERAGE('Total Fuel'!G20:G21)</f>
         <v>12.103000245441242</v>
       </c>
       <c r="C13" s="13"/>
